--- a/test_files/outputs/test_upb_output.xlsx
+++ b/test_files/outputs/test_upb_output.xlsx
@@ -5185,7 +5185,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:N81"/>
+  <dimension ref="A4:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5235,708 +5235,620 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.05925549</v>
-      </c>
-      <c r="C5">
-        <v>0.00095706</v>
-      </c>
-      <c r="D5">
-        <v>0.09762741</v>
-      </c>
-      <c r="E5">
-        <v>0.00115974</v>
-      </c>
-      <c r="F5">
-        <v>0.79753673</v>
-      </c>
-      <c r="G5">
-        <v>0.01305311</v>
-      </c>
-      <c r="H5">
-        <v>0.02956459</v>
-      </c>
-      <c r="I5">
-        <v>0.0008474999999999999</v>
-      </c>
-      <c r="J5">
-        <v>22169</v>
-      </c>
-      <c r="K5">
-        <v>1312</v>
-      </c>
-      <c r="L5">
-        <v>422</v>
-      </c>
-      <c r="M5">
-        <v>15020</v>
-      </c>
-      <c r="N5">
-        <v>251382</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.06102176</v>
-      </c>
-      <c r="C6">
-        <v>0.00102202</v>
-      </c>
-      <c r="D6">
-        <v>0.09776538</v>
-      </c>
-      <c r="E6">
-        <v>0.00114977</v>
-      </c>
-      <c r="F6">
-        <v>0.82252294</v>
-      </c>
-      <c r="G6">
-        <v>0.01379256</v>
-      </c>
-      <c r="H6">
-        <v>0.03230873</v>
-      </c>
-      <c r="I6">
-        <v>0.00096777</v>
-      </c>
-      <c r="J6">
-        <v>19913</v>
-      </c>
-      <c r="K6">
-        <v>1200</v>
-      </c>
-      <c r="L6">
-        <v>404</v>
-      </c>
-      <c r="M6">
-        <v>13138</v>
-      </c>
-      <c r="N6">
-        <v>220856</v>
-      </c>
-    </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.07356002</v>
+        <v>0.05925549</v>
       </c>
       <c r="C7">
-        <v>0.00129452</v>
+        <v>0.00095706</v>
       </c>
       <c r="D7">
-        <v>0.1761913</v>
+        <v>0.09762741</v>
       </c>
       <c r="E7">
-        <v>0.00213131</v>
+        <v>0.00115974</v>
       </c>
       <c r="F7">
-        <v>1.78690434</v>
+        <v>0.79753673</v>
       </c>
       <c r="G7">
-        <v>0.03128593</v>
+        <v>0.01305311</v>
       </c>
       <c r="H7">
-        <v>0.054222</v>
+        <v>0.02956459</v>
       </c>
       <c r="I7">
-        <v>0.00124256</v>
+        <v>0.0008474999999999999</v>
       </c>
       <c r="J7">
-        <v>13553</v>
+        <v>22169</v>
       </c>
       <c r="K7">
-        <v>984</v>
+        <v>1312</v>
       </c>
       <c r="L7">
-        <v>1460</v>
+        <v>422</v>
       </c>
       <c r="M7">
-        <v>28182</v>
+        <v>15020</v>
       </c>
       <c r="N7">
-        <v>83484</v>
+        <v>251382</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0.06426057</v>
+        <v>0.06102176</v>
       </c>
       <c r="C8">
-        <v>0.0012023</v>
+        <v>0.00102202</v>
       </c>
       <c r="D8">
-        <v>0.11813725</v>
+        <v>0.09776538</v>
       </c>
       <c r="E8">
-        <v>0.00147579</v>
+        <v>0.00114977</v>
       </c>
       <c r="F8">
-        <v>1.04662633</v>
+        <v>0.82252294</v>
       </c>
       <c r="G8">
-        <v>0.0195741</v>
+        <v>0.01379256</v>
       </c>
       <c r="H8">
-        <v>0.03630736</v>
+        <v>0.03230873</v>
       </c>
       <c r="I8">
-        <v>0.00076258</v>
+        <v>0.00096777</v>
       </c>
       <c r="J8">
-        <v>11360</v>
+        <v>19913</v>
       </c>
       <c r="K8">
-        <v>732</v>
+        <v>1200</v>
       </c>
       <c r="L8">
-        <v>3144</v>
+        <v>404</v>
       </c>
       <c r="M8">
-        <v>89939</v>
+        <v>13138</v>
       </c>
       <c r="N8">
-        <v>107525</v>
+        <v>220856</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.14002734</v>
+        <v>0.07356002</v>
       </c>
       <c r="C9">
-        <v>0.00202965</v>
+        <v>0.00129452</v>
       </c>
       <c r="D9">
-        <v>0.4267382</v>
+        <v>0.1761913</v>
       </c>
       <c r="E9">
-        <v>0.00509699</v>
+        <v>0.00213131</v>
       </c>
       <c r="F9">
-        <v>8.23819447</v>
+        <v>1.78690434</v>
       </c>
       <c r="G9">
-        <v>0.12225675</v>
+        <v>0.03128593</v>
       </c>
       <c r="H9">
-        <v>0.12521042</v>
+        <v>0.054222</v>
       </c>
       <c r="I9">
-        <v>0.00274793</v>
+        <v>0.00124256</v>
       </c>
       <c r="J9">
-        <v>28631</v>
+        <v>13553</v>
       </c>
       <c r="K9">
-        <v>4013</v>
+        <v>984</v>
       </c>
       <c r="L9">
-        <v>3654</v>
+        <v>1460</v>
       </c>
       <c r="M9">
-        <v>30549</v>
+        <v>28182</v>
       </c>
       <c r="N9">
-        <v>74205</v>
+        <v>83484</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>0.07467622</v>
+        <v>0.06426057</v>
       </c>
       <c r="C10">
-        <v>0.00182117</v>
+        <v>0.0012023</v>
       </c>
       <c r="D10">
-        <v>0.0632067</v>
+        <v>0.11813725</v>
       </c>
       <c r="E10">
-        <v>0.00086021</v>
+        <v>0.00147579</v>
       </c>
       <c r="F10">
-        <v>0.65076309</v>
+        <v>1.04662633</v>
       </c>
       <c r="G10">
-        <v>0.01535627</v>
+        <v>0.0195741</v>
       </c>
       <c r="H10">
-        <v>0.01979949</v>
+        <v>0.03630736</v>
       </c>
       <c r="I10">
-        <v>0.00044462</v>
+        <v>0.00076258</v>
       </c>
       <c r="J10">
-        <v>5287</v>
+        <v>11360</v>
       </c>
       <c r="K10">
-        <v>393</v>
+        <v>732</v>
       </c>
       <c r="L10">
-        <v>11009</v>
+        <v>3144</v>
       </c>
       <c r="M10">
-        <v>580715</v>
+        <v>89939</v>
       </c>
       <c r="N10">
-        <v>91499</v>
+        <v>107525</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.10839629</v>
+        <v>0.14002734</v>
       </c>
       <c r="C11">
-        <v>0.00179585</v>
+        <v>0.00202965</v>
       </c>
       <c r="D11">
-        <v>0.29725766</v>
+        <v>0.4267382</v>
       </c>
       <c r="E11">
-        <v>0.00361408</v>
+        <v>0.00509699</v>
       </c>
       <c r="F11">
-        <v>4.44251394</v>
+        <v>8.23819447</v>
       </c>
       <c r="G11">
-        <v>0.07365235000000001</v>
+        <v>0.12225675</v>
       </c>
       <c r="H11">
-        <v>0.08825705</v>
+        <v>0.12521042</v>
       </c>
       <c r="I11">
-        <v>0.00212575</v>
+        <v>0.00274793</v>
       </c>
       <c r="J11">
-        <v>20312</v>
+        <v>28631</v>
       </c>
       <c r="K11">
-        <v>2186</v>
+        <v>4013</v>
       </c>
       <c r="L11">
-        <v>4118</v>
+        <v>3654</v>
       </c>
       <c r="M11">
-        <v>48582</v>
+        <v>30549</v>
       </c>
       <c r="N11">
-        <v>74606</v>
+        <v>74205</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>0.06233726</v>
+        <v>0.07467622</v>
       </c>
       <c r="C12">
-        <v>0.00172683</v>
+        <v>0.00182117</v>
       </c>
       <c r="D12">
-        <v>0.08146672000000001</v>
+        <v>0.0632067</v>
       </c>
       <c r="E12">
-        <v>0.00115038</v>
+        <v>0.00086021</v>
       </c>
       <c r="F12">
-        <v>0.70016521</v>
+        <v>0.65076309</v>
       </c>
       <c r="G12">
-        <v>0.01880147</v>
+        <v>0.01535627</v>
       </c>
       <c r="H12">
-        <v>0.02771389</v>
+        <v>0.01979949</v>
       </c>
       <c r="I12">
-        <v>0.0008110599999999999</v>
+        <v>0.00044462</v>
       </c>
       <c r="J12">
-        <v>5431</v>
+        <v>5287</v>
       </c>
       <c r="K12">
-        <v>337</v>
+        <v>393</v>
       </c>
       <c r="L12">
-        <v>1099</v>
+        <v>11009</v>
       </c>
       <c r="M12">
-        <v>41444</v>
+        <v>580715</v>
       </c>
       <c r="N12">
-        <v>73272</v>
+        <v>91499</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>0.17508344</v>
+        <v>0.10839629</v>
       </c>
       <c r="C13">
-        <v>0.0034998</v>
+        <v>0.00179585</v>
       </c>
       <c r="D13">
-        <v>0.44849381</v>
+        <v>0.29725766</v>
       </c>
       <c r="E13">
-        <v>0.00593731</v>
+        <v>0.00361408</v>
       </c>
       <c r="F13">
-        <v>10.82270527</v>
+        <v>4.44251394</v>
       </c>
       <c r="G13">
-        <v>0.21751702</v>
+        <v>0.07365235000000001</v>
       </c>
       <c r="H13">
-        <v>0.13104485</v>
+        <v>0.08825705</v>
       </c>
       <c r="I13">
-        <v>0.00487851</v>
+        <v>0.00212575</v>
       </c>
       <c r="J13">
-        <v>291334</v>
+        <v>20312</v>
       </c>
       <c r="K13">
-        <v>51762</v>
+        <v>2186</v>
       </c>
       <c r="L13">
-        <v>17949</v>
+        <v>4118</v>
       </c>
       <c r="M13">
-        <v>145089</v>
+        <v>48582</v>
       </c>
       <c r="N13">
-        <v>760321</v>
+        <v>74606</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>0.17388043</v>
+        <v>0.06233726</v>
       </c>
       <c r="C14">
-        <v>0.00422406</v>
+        <v>0.00172683</v>
       </c>
       <c r="D14">
-        <v>0.47403106</v>
+        <v>0.08146672000000001</v>
       </c>
       <c r="E14">
-        <v>0.00709189</v>
+        <v>0.00115038</v>
       </c>
       <c r="F14">
-        <v>11.36583042</v>
+        <v>0.70016521</v>
       </c>
       <c r="G14">
-        <v>0.27610224</v>
+        <v>0.01880147</v>
       </c>
       <c r="H14">
-        <v>0.09755125000000001</v>
+        <v>0.02771389</v>
       </c>
       <c r="I14">
-        <v>0.0050431</v>
+        <v>0.0008110599999999999</v>
       </c>
       <c r="J14">
-        <v>122923</v>
+        <v>5431</v>
       </c>
       <c r="K14">
-        <v>22223</v>
+        <v>337</v>
       </c>
       <c r="L14">
-        <v>2992</v>
+        <v>1099</v>
       </c>
       <c r="M14">
-        <v>35058</v>
+        <v>41444</v>
       </c>
       <c r="N14">
-        <v>321059</v>
+        <v>73272</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>0.17100489</v>
+        <v>0.17508344</v>
       </c>
       <c r="C15">
-        <v>0.00295209</v>
+        <v>0.0034998</v>
       </c>
       <c r="D15">
-        <v>0.49699029</v>
+        <v>0.44849381</v>
       </c>
       <c r="E15">
-        <v>0.00616109</v>
+        <v>0.00593731</v>
       </c>
       <c r="F15">
-        <v>11.71724606</v>
+        <v>10.82270527</v>
       </c>
       <c r="G15">
-        <v>0.20248808</v>
+        <v>0.21751702</v>
       </c>
       <c r="H15">
-        <v>0.13523741</v>
+        <v>0.13104485</v>
       </c>
       <c r="I15">
-        <v>0.00397501</v>
+        <v>0.00487851</v>
       </c>
       <c r="J15">
-        <v>37106</v>
+        <v>291334</v>
       </c>
       <c r="K15">
-        <v>6345</v>
+        <v>51762</v>
       </c>
       <c r="L15">
-        <v>6321</v>
+        <v>17949</v>
       </c>
       <c r="M15">
-        <v>48869</v>
+        <v>145089</v>
       </c>
       <c r="N15">
-        <v>82163</v>
+        <v>760321</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>0.05722805</v>
+        <v>0.17388043</v>
       </c>
       <c r="C16">
-        <v>0.00178174</v>
+        <v>0.00422406</v>
       </c>
       <c r="D16">
-        <v>0.05942357</v>
+        <v>0.47403106</v>
       </c>
       <c r="E16">
-        <v>0.00088212</v>
+        <v>0.00709189</v>
       </c>
       <c r="F16">
-        <v>0.46886104</v>
+        <v>11.36583042</v>
       </c>
       <c r="G16">
-        <v>0.01416581</v>
+        <v>0.27610224</v>
       </c>
       <c r="H16">
-        <v>0.01924586</v>
+        <v>0.09755125000000001</v>
       </c>
       <c r="I16">
-        <v>0.00063171</v>
+        <v>0.0050431</v>
       </c>
       <c r="J16">
-        <v>5685</v>
+        <v>122923</v>
       </c>
       <c r="K16">
-        <v>328</v>
+        <v>22223</v>
       </c>
       <c r="L16">
-        <v>2252</v>
+        <v>2992</v>
       </c>
       <c r="M16">
-        <v>124733</v>
+        <v>35058</v>
       </c>
       <c r="N16">
-        <v>107292</v>
+        <v>321059</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>0.10390117</v>
+        <v>0.17100489</v>
       </c>
       <c r="C17">
-        <v>0.00210558</v>
+        <v>0.00295209</v>
       </c>
       <c r="D17">
-        <v>0.27769876</v>
+        <v>0.49699029</v>
       </c>
       <c r="E17">
-        <v>0.00369108</v>
+        <v>0.00616109</v>
       </c>
       <c r="F17">
-        <v>3.97823405</v>
+        <v>11.71724606</v>
       </c>
       <c r="G17">
-        <v>0.08095206000000001</v>
+        <v>0.20248808</v>
       </c>
       <c r="H17">
-        <v>0.08092102</v>
+        <v>0.13523741</v>
       </c>
       <c r="I17">
-        <v>0.00299898</v>
+        <v>0.00397501</v>
       </c>
       <c r="J17">
-        <v>106027</v>
+        <v>37106</v>
       </c>
       <c r="K17">
-        <v>11283</v>
+        <v>6345</v>
       </c>
       <c r="L17">
-        <v>15147</v>
+        <v>6321</v>
       </c>
       <c r="M17">
-        <v>196756</v>
+        <v>48869</v>
       </c>
       <c r="N17">
-        <v>444532</v>
+        <v>82163</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>0.05225151</v>
+        <v>0.05722805</v>
       </c>
       <c r="C18">
-        <v>0.00121183</v>
+        <v>0.00178174</v>
       </c>
       <c r="D18">
-        <v>0.05925776</v>
+        <v>0.05942357</v>
       </c>
       <c r="E18">
-        <v>0.00077642</v>
+        <v>0.00088212</v>
       </c>
       <c r="F18">
-        <v>0.42689079</v>
+        <v>0.46886104</v>
       </c>
       <c r="G18">
-        <v>0.009725900000000001</v>
+        <v>0.01416581</v>
       </c>
       <c r="H18">
-        <v>0.01824271</v>
+        <v>0.01924586</v>
       </c>
       <c r="I18">
-        <v>0.00068231</v>
+        <v>0.00063171</v>
       </c>
       <c r="J18">
-        <v>31958</v>
+        <v>5685</v>
       </c>
       <c r="K18">
-        <v>1688</v>
+        <v>328</v>
       </c>
       <c r="L18">
-        <v>6366</v>
+        <v>2252</v>
       </c>
       <c r="M18">
-        <v>362840</v>
+        <v>124733</v>
       </c>
       <c r="N18">
-        <v>595162</v>
+        <v>107292</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>0.06037111</v>
+        <v>0.10390117</v>
       </c>
       <c r="C19">
-        <v>0.0012294</v>
+        <v>0.00210558</v>
       </c>
       <c r="D19">
-        <v>0.09778125</v>
+        <v>0.27769876</v>
       </c>
       <c r="E19">
-        <v>0.00121853</v>
+        <v>0.00369108</v>
       </c>
       <c r="F19">
-        <v>0.81387657</v>
+        <v>3.97823405</v>
       </c>
       <c r="G19">
-        <v>0.01635747</v>
+        <v>0.08095206000000001</v>
       </c>
       <c r="H19">
-        <v>0.03283451</v>
+        <v>0.08092102</v>
       </c>
       <c r="I19">
-        <v>0.00123317</v>
+        <v>0.00299898</v>
       </c>
       <c r="J19">
-        <v>17741</v>
+        <v>106027</v>
       </c>
       <c r="K19">
-        <v>1066</v>
+        <v>11283</v>
       </c>
       <c r="L19">
-        <v>379</v>
+        <v>15147</v>
       </c>
       <c r="M19">
-        <v>11754</v>
+        <v>196756</v>
       </c>
       <c r="N19">
-        <v>197733</v>
+        <v>444532</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>0.05983654</v>
+        <v>0.05225151</v>
       </c>
       <c r="C20">
-        <v>0.00123614</v>
+        <v>0.00121183</v>
       </c>
       <c r="D20">
-        <v>0.0974489</v>
+        <v>0.05925776</v>
       </c>
       <c r="E20">
-        <v>0.00121967</v>
+        <v>0.00077642</v>
       </c>
       <c r="F20">
-        <v>0.80392814</v>
+        <v>0.42689079</v>
       </c>
       <c r="G20">
-        <v>0.01638236</v>
+        <v>0.009725900000000001</v>
       </c>
       <c r="H20">
-        <v>0.02899833</v>
+        <v>0.01824271</v>
       </c>
       <c r="I20">
-        <v>0.00112888</v>
+        <v>0.00068231</v>
       </c>
       <c r="J20">
-        <v>18220</v>
+        <v>31958</v>
       </c>
       <c r="K20">
-        <v>1084</v>
+        <v>1688</v>
       </c>
       <c r="L20">
-        <v>345</v>
+        <v>6366</v>
       </c>
       <c r="M20">
-        <v>12085</v>
+        <v>362840</v>
       </c>
       <c r="N20">
-        <v>203798</v>
+        <v>595162</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -5944,43 +5856,43 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0.06028967</v>
+        <v>0.06037111</v>
       </c>
       <c r="C21">
-        <v>0.00103829</v>
+        <v>0.0012294</v>
       </c>
       <c r="D21">
-        <v>0.09783884</v>
+        <v>0.09778125</v>
       </c>
       <c r="E21">
-        <v>0.00117964</v>
+        <v>0.00121853</v>
       </c>
       <c r="F21">
-        <v>0.8132582900000001</v>
+        <v>0.81387657</v>
       </c>
       <c r="G21">
-        <v>0.01407914</v>
+        <v>0.01635747</v>
       </c>
       <c r="H21">
-        <v>0.03248931</v>
+        <v>0.03283451</v>
       </c>
       <c r="I21">
-        <v>0.0009927499999999999</v>
+        <v>0.00123317</v>
       </c>
       <c r="J21">
-        <v>18245</v>
+        <v>17741</v>
       </c>
       <c r="K21">
-        <v>1103</v>
+        <v>1066</v>
       </c>
       <c r="L21">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="M21">
-        <v>12270</v>
+        <v>11754</v>
       </c>
       <c r="N21">
-        <v>206360</v>
+        <v>197733</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5988,28 +5900,28 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0.05991495</v>
+        <v>0.05983654</v>
       </c>
       <c r="C22">
-        <v>0.00103784</v>
+        <v>0.00123614</v>
       </c>
       <c r="D22">
-        <v>0.09724594</v>
+        <v>0.0974489</v>
       </c>
       <c r="E22">
-        <v>0.00115992</v>
+        <v>0.00121967</v>
       </c>
       <c r="F22">
-        <v>0.80331069</v>
+        <v>0.80392814</v>
       </c>
       <c r="G22">
-        <v>0.01392749</v>
+        <v>0.01638236</v>
       </c>
       <c r="H22">
-        <v>0.02901073</v>
+        <v>0.02899833</v>
       </c>
       <c r="I22">
-        <v>0.00091216</v>
+        <v>0.00112888</v>
       </c>
       <c r="J22">
         <v>18220</v>
@@ -6024,799 +5936,799 @@
         <v>12085</v>
       </c>
       <c r="N22">
-        <v>204743</v>
+        <v>203798</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>0.07490122</v>
+        <v>0.06028967</v>
       </c>
       <c r="C23">
-        <v>0.00160574</v>
+        <v>0.00103829</v>
       </c>
       <c r="D23">
-        <v>0.17836133</v>
+        <v>0.09783884</v>
       </c>
       <c r="E23">
-        <v>0.00230771</v>
+        <v>0.00117964</v>
       </c>
       <c r="F23">
-        <v>1.84209335</v>
+        <v>0.8132582900000001</v>
       </c>
       <c r="G23">
-        <v>0.03862256</v>
+        <v>0.01407914</v>
       </c>
       <c r="H23">
-        <v>0.05490848</v>
+        <v>0.03248931</v>
       </c>
       <c r="I23">
-        <v>0.0015696</v>
+        <v>0.0009927499999999999</v>
       </c>
       <c r="J23">
-        <v>11039</v>
+        <v>18245</v>
       </c>
       <c r="K23">
-        <v>827</v>
+        <v>1103</v>
       </c>
       <c r="L23">
-        <v>1210</v>
+        <v>388</v>
       </c>
       <c r="M23">
-        <v>22354</v>
+        <v>12270</v>
       </c>
       <c r="N23">
-        <v>67067</v>
+        <v>206360</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>0.06362816</v>
+        <v>0.05991495</v>
       </c>
       <c r="C24">
-        <v>0.00215729</v>
+        <v>0.00103784</v>
       </c>
       <c r="D24">
-        <v>0.12061665</v>
+        <v>0.09724594</v>
       </c>
       <c r="E24">
-        <v>0.00183151</v>
+        <v>0.00115992</v>
       </c>
       <c r="F24">
-        <v>1.05854285</v>
+        <v>0.80331069</v>
       </c>
       <c r="G24">
-        <v>0.03457375</v>
+        <v>0.01392749</v>
       </c>
       <c r="H24">
-        <v>0.03562337</v>
+        <v>0.02901073</v>
       </c>
       <c r="I24">
-        <v>0.00130316</v>
+        <v>0.00091216</v>
       </c>
       <c r="J24">
-        <v>7976</v>
+        <v>18220</v>
       </c>
       <c r="K24">
-        <v>491</v>
+        <v>1084</v>
       </c>
       <c r="L24">
-        <v>2080</v>
+        <v>345</v>
       </c>
       <c r="M24">
-        <v>56814</v>
+        <v>12085</v>
       </c>
       <c r="N24">
-        <v>69883</v>
+        <v>204743</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B25">
-        <v>0.1215596</v>
+        <v>0.07490122</v>
       </c>
       <c r="C25">
-        <v>0.00183066</v>
+        <v>0.00160574</v>
       </c>
       <c r="D25">
-        <v>0.35263106</v>
+        <v>0.17836133</v>
       </c>
       <c r="E25">
-        <v>0.00430447</v>
+        <v>0.00230771</v>
       </c>
       <c r="F25">
-        <v>5.90975761</v>
+        <v>1.84209335</v>
       </c>
       <c r="G25">
-        <v>0.09170296</v>
+        <v>0.03862256</v>
       </c>
       <c r="H25">
-        <v>0.10399723</v>
+        <v>0.05490848</v>
       </c>
       <c r="I25">
-        <v>0.00240363</v>
+        <v>0.0015696</v>
       </c>
       <c r="J25">
-        <v>37405</v>
+        <v>11039</v>
       </c>
       <c r="K25">
-        <v>4574</v>
+        <v>827</v>
       </c>
       <c r="L25">
-        <v>6182</v>
+        <v>1210</v>
       </c>
       <c r="M25">
-        <v>62854</v>
+        <v>22354</v>
       </c>
       <c r="N25">
-        <v>120159</v>
+        <v>67067</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26">
-        <v>0.05556513</v>
+        <v>0.06362816</v>
       </c>
       <c r="C26">
-        <v>0.00107415</v>
+        <v>0.00215729</v>
       </c>
       <c r="D26">
-        <v>0.06587759</v>
+        <v>0.12061665</v>
       </c>
       <c r="E26">
-        <v>0.00082744</v>
+        <v>0.00183151</v>
       </c>
       <c r="F26">
-        <v>0.5046261</v>
+        <v>1.05854285</v>
       </c>
       <c r="G26">
-        <v>0.009775809999999999</v>
+        <v>0.03457375</v>
       </c>
       <c r="H26">
-        <v>0.02049271</v>
+        <v>0.03562337</v>
       </c>
       <c r="I26">
-        <v>0.0005667</v>
+        <v>0.00130316</v>
       </c>
       <c r="J26">
-        <v>36306</v>
+        <v>7976</v>
       </c>
       <c r="K26">
-        <v>2020</v>
+        <v>491</v>
       </c>
       <c r="L26">
-        <v>10445</v>
+        <v>2080</v>
       </c>
       <c r="M26">
-        <v>545153</v>
+        <v>56814</v>
       </c>
       <c r="N26">
-        <v>622028</v>
+        <v>69883</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>0.05490155</v>
+        <v>0.1215596</v>
       </c>
       <c r="C27">
-        <v>0.00101423</v>
+        <v>0.00183066</v>
       </c>
       <c r="D27">
-        <v>0.05940912</v>
+        <v>0.35263106</v>
       </c>
       <c r="E27">
-        <v>0.0007193600000000001</v>
+        <v>0.00430447</v>
       </c>
       <c r="F27">
-        <v>0.44966462</v>
+        <v>5.90975761</v>
       </c>
       <c r="G27">
-        <v>0.008301970000000001</v>
+        <v>0.09170296</v>
       </c>
       <c r="H27">
-        <v>0.01731452</v>
+        <v>0.10399723</v>
       </c>
       <c r="I27">
-        <v>0.00040787</v>
+        <v>0.00240363</v>
       </c>
       <c r="J27">
-        <v>16872</v>
+        <v>37405</v>
       </c>
       <c r="K27">
-        <v>915</v>
+        <v>4574</v>
       </c>
       <c r="L27">
-        <v>2752</v>
+        <v>6182</v>
       </c>
       <c r="M27">
-        <v>164612</v>
+        <v>62854</v>
       </c>
       <c r="N27">
-        <v>312642</v>
+        <v>120159</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28">
-        <v>0.11058337</v>
+        <v>0.05556513</v>
       </c>
       <c r="C28">
-        <v>0.00251514</v>
+        <v>0.00107415</v>
       </c>
       <c r="D28">
-        <v>0.32139429</v>
+        <v>0.06587759</v>
       </c>
       <c r="E28">
-        <v>0.004345</v>
+        <v>0.00082744</v>
       </c>
       <c r="F28">
-        <v>4.9013834</v>
+        <v>0.5046261</v>
       </c>
       <c r="G28">
-        <v>0.1081541</v>
+        <v>0.009775809999999999</v>
       </c>
       <c r="H28">
-        <v>0.09430452</v>
+        <v>0.02049271</v>
       </c>
       <c r="I28">
-        <v>0.00317649</v>
+        <v>0.0005667</v>
       </c>
       <c r="J28">
-        <v>14320</v>
+        <v>36306</v>
       </c>
       <c r="K28">
-        <v>1536</v>
+        <v>2020</v>
       </c>
       <c r="L28">
-        <v>3477</v>
+        <v>10445</v>
       </c>
       <c r="M28">
-        <v>36518</v>
+        <v>545153</v>
       </c>
       <c r="N28">
-        <v>47436</v>
+        <v>622028</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B29">
-        <v>0.11446285</v>
+        <v>0.05490155</v>
       </c>
       <c r="C29">
-        <v>0.00242298</v>
+        <v>0.00101423</v>
       </c>
       <c r="D29">
-        <v>0.31895921</v>
+        <v>0.05940912</v>
       </c>
       <c r="E29">
-        <v>0.00438916</v>
+        <v>0.0007193600000000001</v>
       </c>
       <c r="F29">
-        <v>5.0343132</v>
+        <v>0.44966462</v>
       </c>
       <c r="G29">
-        <v>0.10671499</v>
+        <v>0.008301970000000001</v>
       </c>
       <c r="H29">
-        <v>0.09551901</v>
+        <v>0.01731452</v>
       </c>
       <c r="I29">
-        <v>0.00350067</v>
+        <v>0.00040787</v>
       </c>
       <c r="J29">
-        <v>46403</v>
+        <v>16872</v>
       </c>
       <c r="K29">
-        <v>5323</v>
+        <v>915</v>
       </c>
       <c r="L29">
-        <v>6256</v>
+        <v>2752</v>
       </c>
       <c r="M29">
-        <v>71004</v>
+        <v>164612</v>
       </c>
       <c r="N29">
-        <v>170639</v>
+        <v>312642</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30">
-        <v>0.15219173</v>
+        <v>0.11058337</v>
       </c>
       <c r="C30">
-        <v>0.00690585</v>
+        <v>0.00251514</v>
       </c>
       <c r="D30">
-        <v>0.06729259</v>
+        <v>0.32139429</v>
       </c>
       <c r="E30">
-        <v>0.00162789</v>
+        <v>0.004345</v>
       </c>
       <c r="F30">
-        <v>1.41188121</v>
+        <v>4.9013834</v>
       </c>
       <c r="G30">
-        <v>0.0579316</v>
+        <v>0.1081541</v>
       </c>
       <c r="H30">
-        <v>0.02059189</v>
+        <v>0.09430452</v>
       </c>
       <c r="I30">
-        <v>0.0006094</v>
+        <v>0.00317649</v>
       </c>
       <c r="J30">
-        <v>957</v>
+        <v>14320</v>
       </c>
       <c r="K30">
-        <v>145</v>
+        <v>1536</v>
       </c>
       <c r="L30">
-        <v>2438</v>
+        <v>3477</v>
       </c>
       <c r="M30">
-        <v>125374</v>
+        <v>36518</v>
       </c>
       <c r="N30">
-        <v>16158</v>
+        <v>47436</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B31">
-        <v>0.17591637</v>
+        <v>0.11446285</v>
       </c>
       <c r="C31">
-        <v>0.00396296</v>
+        <v>0.00242298</v>
       </c>
       <c r="D31">
-        <v>0.45337144</v>
+        <v>0.31895921</v>
       </c>
       <c r="E31">
-        <v>0.00615009</v>
+        <v>0.00438916</v>
       </c>
       <c r="F31">
-        <v>10.99534512</v>
+        <v>5.0343132</v>
       </c>
       <c r="G31">
-        <v>0.24225868</v>
+        <v>0.10671499</v>
       </c>
       <c r="H31">
-        <v>0.12764712</v>
+        <v>0.09551901</v>
       </c>
       <c r="I31">
-        <v>0.00517516</v>
+        <v>0.00350067</v>
       </c>
       <c r="J31">
-        <v>48904</v>
+        <v>46403</v>
       </c>
       <c r="K31">
-        <v>8648</v>
+        <v>5323</v>
       </c>
       <c r="L31">
-        <v>7925</v>
+        <v>6256</v>
       </c>
       <c r="M31">
-        <v>63898</v>
+        <v>71004</v>
       </c>
       <c r="N31">
-        <v>118906</v>
+        <v>170639</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B32">
-        <v>0.16680987</v>
+        <v>0.15219173</v>
       </c>
       <c r="C32">
-        <v>0.00282379</v>
+        <v>0.00690585</v>
       </c>
       <c r="D32">
-        <v>0.4367891</v>
+        <v>0.06729259</v>
       </c>
       <c r="E32">
-        <v>0.0053252</v>
+        <v>0.00162789</v>
       </c>
       <c r="F32">
-        <v>10.04393387</v>
+        <v>1.41188121</v>
       </c>
       <c r="G32">
-        <v>0.17152968</v>
+        <v>0.0579316</v>
       </c>
       <c r="H32">
-        <v>0.12116589</v>
+        <v>0.02059189</v>
       </c>
       <c r="I32">
-        <v>0.00359752</v>
+        <v>0.0006094</v>
       </c>
       <c r="J32">
-        <v>67017</v>
+        <v>957</v>
       </c>
       <c r="K32">
-        <v>11056</v>
+        <v>145</v>
       </c>
       <c r="L32">
-        <v>5560</v>
+        <v>2438</v>
       </c>
       <c r="M32">
-        <v>48123</v>
+        <v>125374</v>
       </c>
       <c r="N32">
-        <v>169924</v>
+        <v>16158</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33">
-        <v>0.05381548</v>
+        <v>0.17591637</v>
       </c>
       <c r="C33">
-        <v>0.00121821</v>
+        <v>0.00396296</v>
       </c>
       <c r="D33">
-        <v>0.05933176</v>
+        <v>0.45337144</v>
       </c>
       <c r="E33">
-        <v>0.00076229</v>
+        <v>0.00615009</v>
       </c>
       <c r="F33">
-        <v>0.44018677</v>
+        <v>10.99534512</v>
       </c>
       <c r="G33">
-        <v>0.009819690000000001</v>
+        <v>0.24225868</v>
       </c>
       <c r="H33">
-        <v>0.01854042</v>
+        <v>0.12764712</v>
       </c>
       <c r="I33">
-        <v>0.00054204</v>
+        <v>0.00517516</v>
       </c>
       <c r="J33">
-        <v>11737</v>
+        <v>48904</v>
       </c>
       <c r="K33">
-        <v>622</v>
+        <v>8648</v>
       </c>
       <c r="L33">
-        <v>2793</v>
+        <v>7925</v>
       </c>
       <c r="M33">
-        <v>157587</v>
+        <v>63898</v>
       </c>
       <c r="N33">
-        <v>218287</v>
+        <v>118906</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B34">
-        <v>0.05417064</v>
+        <v>0.16680987</v>
       </c>
       <c r="C34">
-        <v>0.00105498</v>
+        <v>0.00282379</v>
       </c>
       <c r="D34">
-        <v>0.06099826</v>
+        <v>0.4367891</v>
       </c>
       <c r="E34">
-        <v>0.00075086</v>
+        <v>0.0053252</v>
       </c>
       <c r="F34">
-        <v>0.45553297</v>
+        <v>10.04393387</v>
       </c>
       <c r="G34">
-        <v>0.008839</v>
+        <v>0.17152968</v>
       </c>
       <c r="H34">
-        <v>0.01934309</v>
+        <v>0.12116589</v>
       </c>
       <c r="I34">
-        <v>0.00057744</v>
+        <v>0.00359752</v>
       </c>
       <c r="J34">
-        <v>25672</v>
+        <v>67017</v>
       </c>
       <c r="K34">
-        <v>1367</v>
+        <v>11056</v>
       </c>
       <c r="L34">
-        <v>2999</v>
+        <v>5560</v>
       </c>
       <c r="M34">
-        <v>162448</v>
+        <v>48123</v>
       </c>
       <c r="N34">
-        <v>464004</v>
+        <v>169924</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35">
-        <v>0.115052</v>
+        <v>0.05381548</v>
       </c>
       <c r="C35">
-        <v>0.0021263</v>
+        <v>0.00121821</v>
       </c>
       <c r="D35">
-        <v>0.33738092</v>
+        <v>0.05933176</v>
       </c>
       <c r="E35">
-        <v>0.00426294</v>
+        <v>0.00076229</v>
       </c>
       <c r="F35">
-        <v>5.35088062</v>
+        <v>0.44018677</v>
       </c>
       <c r="G35">
-        <v>0.09956656</v>
+        <v>0.009819690000000001</v>
       </c>
       <c r="H35">
-        <v>0.09396574000000001</v>
+        <v>0.01854042</v>
       </c>
       <c r="I35">
-        <v>0.00293873</v>
+        <v>0.00054204</v>
       </c>
       <c r="J35">
-        <v>44096</v>
+        <v>11737</v>
       </c>
       <c r="K35">
-        <v>5018</v>
+        <v>622</v>
       </c>
       <c r="L35">
-        <v>12618</v>
+        <v>2793</v>
       </c>
       <c r="M35">
-        <v>141598</v>
+        <v>157587</v>
       </c>
       <c r="N35">
-        <v>147168</v>
+        <v>218287</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B36">
-        <v>0.11392029</v>
+        <v>0.05417064</v>
       </c>
       <c r="C36">
-        <v>0.00222018</v>
+        <v>0.00105498</v>
       </c>
       <c r="D36">
-        <v>0.33117929</v>
+        <v>0.06099826</v>
       </c>
       <c r="E36">
-        <v>0.00423431</v>
+        <v>0.00075086</v>
       </c>
       <c r="F36">
-        <v>5.20094395</v>
+        <v>0.45553297</v>
       </c>
       <c r="G36">
-        <v>0.10186438</v>
+        <v>0.008839</v>
       </c>
       <c r="H36">
-        <v>0.09053271</v>
+        <v>0.01934309</v>
       </c>
       <c r="I36">
-        <v>0.00313807</v>
+        <v>0.00057744</v>
       </c>
       <c r="J36">
-        <v>90923</v>
+        <v>25672</v>
       </c>
       <c r="K36">
-        <v>10226</v>
+        <v>1367</v>
       </c>
       <c r="L36">
-        <v>17545</v>
+        <v>2999</v>
       </c>
       <c r="M36">
-        <v>206338</v>
+        <v>162448</v>
       </c>
       <c r="N36">
-        <v>311623</v>
+        <v>464004</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B37">
-        <v>0.21313961</v>
+        <v>0.115052</v>
       </c>
       <c r="C37">
-        <v>0.00370454</v>
+        <v>0.0021263</v>
       </c>
       <c r="D37">
-        <v>0.55079246</v>
+        <v>0.33738092</v>
       </c>
       <c r="E37">
-        <v>0.00667998</v>
+        <v>0.00426294</v>
       </c>
       <c r="F37">
-        <v>16.18409538</v>
+        <v>5.35088062</v>
       </c>
       <c r="G37">
-        <v>0.28299115</v>
+        <v>0.09956656</v>
       </c>
       <c r="H37">
-        <v>0.15494223</v>
+        <v>0.09396574000000001</v>
       </c>
       <c r="I37">
-        <v>0.00481573</v>
+        <v>0.00293873</v>
       </c>
       <c r="J37">
-        <v>70813</v>
+        <v>44096</v>
       </c>
       <c r="K37">
-        <v>14716</v>
+        <v>5018</v>
       </c>
       <c r="L37">
-        <v>6287</v>
+        <v>12618</v>
       </c>
       <c r="M37">
-        <v>42661</v>
+        <v>141598</v>
       </c>
       <c r="N37">
-        <v>141329</v>
+        <v>147168</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B38">
-        <v>0.17071074</v>
+        <v>0.11392029</v>
       </c>
       <c r="C38">
-        <v>0.00319185</v>
+        <v>0.00222018</v>
       </c>
       <c r="D38">
-        <v>0.33106613</v>
+        <v>0.33117929</v>
       </c>
       <c r="E38">
-        <v>0.0040919</v>
+        <v>0.00423431</v>
       </c>
       <c r="F38">
-        <v>7.79119396</v>
+        <v>5.20094395</v>
       </c>
       <c r="G38">
-        <v>0.14631231</v>
+        <v>0.10186438</v>
       </c>
       <c r="H38">
-        <v>0.07913195000000001</v>
+        <v>0.09053271</v>
       </c>
       <c r="I38">
-        <v>0.00272143</v>
+        <v>0.00313807</v>
       </c>
       <c r="J38">
-        <v>199039</v>
+        <v>90923</v>
       </c>
       <c r="K38">
-        <v>33247</v>
+        <v>10226</v>
       </c>
       <c r="L38">
-        <v>14147</v>
+        <v>17545</v>
       </c>
       <c r="M38">
-        <v>190009</v>
+        <v>206338</v>
       </c>
       <c r="N38">
-        <v>668357</v>
+        <v>311623</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B39">
-        <v>0.05991508</v>
+        <v>0.21313961</v>
       </c>
       <c r="C39">
-        <v>0.00127101</v>
+        <v>0.00370454</v>
       </c>
       <c r="D39">
-        <v>0.09794469</v>
+        <v>0.55079246</v>
       </c>
       <c r="E39">
-        <v>0.00123767</v>
+        <v>0.00667998</v>
       </c>
       <c r="F39">
-        <v>0.80903924</v>
+        <v>16.18409538</v>
       </c>
       <c r="G39">
-        <v>0.01698432</v>
+        <v>0.28299115</v>
       </c>
       <c r="H39">
-        <v>0.03175987</v>
+        <v>0.15494223</v>
       </c>
       <c r="I39">
-        <v>0.00127495</v>
+        <v>0.00481573</v>
       </c>
       <c r="J39">
-        <v>17509</v>
+        <v>70813</v>
       </c>
       <c r="K39">
-        <v>1021</v>
+        <v>14716</v>
       </c>
       <c r="L39">
-        <v>349</v>
+        <v>6287</v>
       </c>
       <c r="M39">
-        <v>11631</v>
+        <v>42661</v>
       </c>
       <c r="N39">
-        <v>196435</v>
+        <v>141329</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B40">
-        <v>0.06031692</v>
+        <v>0.17071074</v>
       </c>
       <c r="C40">
-        <v>0.00129249</v>
+        <v>0.00319185</v>
       </c>
       <c r="D40">
-        <v>0.09735291</v>
+        <v>0.33106613</v>
       </c>
       <c r="E40">
-        <v>0.00123456</v>
+        <v>0.0040919</v>
       </c>
       <c r="F40">
-        <v>0.8095541000000001</v>
+        <v>7.79119396</v>
       </c>
       <c r="G40">
-        <v>0.0171609</v>
+        <v>0.14631231</v>
       </c>
       <c r="H40">
-        <v>0.0299046</v>
+        <v>0.07913195000000001</v>
       </c>
       <c r="I40">
-        <v>0.00123094</v>
+        <v>0.00272143</v>
       </c>
       <c r="J40">
-        <v>18149</v>
+        <v>199039</v>
       </c>
       <c r="K40">
-        <v>1065</v>
+        <v>33247</v>
       </c>
       <c r="L40">
-        <v>338</v>
+        <v>14147</v>
       </c>
       <c r="M40">
-        <v>12008</v>
+        <v>190009</v>
       </c>
       <c r="N40">
-        <v>204933</v>
+        <v>668357</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -6824,43 +6736,43 @@
         <v>38</v>
       </c>
       <c r="B41">
-        <v>0.05963452</v>
+        <v>0.05991508</v>
       </c>
       <c r="C41">
-        <v>0.00107101</v>
+        <v>0.00127101</v>
       </c>
       <c r="D41">
-        <v>0.09795207</v>
+        <v>0.09794469</v>
       </c>
       <c r="E41">
-        <v>0.00118215</v>
+        <v>0.00123767</v>
       </c>
       <c r="F41">
-        <v>0.80527788</v>
+        <v>0.80903924</v>
       </c>
       <c r="G41">
-        <v>0.01450291</v>
+        <v>0.01698432</v>
       </c>
       <c r="H41">
-        <v>0.03159827</v>
+        <v>0.03175987</v>
       </c>
       <c r="I41">
-        <v>0.00101091</v>
+        <v>0.00127495</v>
       </c>
       <c r="J41">
-        <v>17750</v>
+        <v>17509</v>
       </c>
       <c r="K41">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="L41">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M41">
-        <v>11786</v>
+        <v>11631</v>
       </c>
       <c r="N41">
-        <v>199439</v>
+        <v>196435</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -6868,28 +6780,28 @@
         <v>39</v>
       </c>
       <c r="B42">
-        <v>0.06020008</v>
+        <v>0.06031692</v>
       </c>
       <c r="C42">
-        <v>0.00105454</v>
+        <v>0.00129249</v>
       </c>
       <c r="D42">
-        <v>0.09724117</v>
+        <v>0.09735291</v>
       </c>
       <c r="E42">
-        <v>0.00116506</v>
+        <v>0.00123456</v>
       </c>
       <c r="F42">
-        <v>0.8070664400000001</v>
+        <v>0.8095541000000001</v>
       </c>
       <c r="G42">
-        <v>0.01419273</v>
+        <v>0.0171609</v>
       </c>
       <c r="H42">
-        <v>0.02995238</v>
+        <v>0.0299046</v>
       </c>
       <c r="I42">
-        <v>0.0009481099999999999</v>
+        <v>0.00123094</v>
       </c>
       <c r="J42">
         <v>18149</v>
@@ -6898,10 +6810,10 @@
         <v>1065</v>
       </c>
       <c r="L42">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M42">
-        <v>12003</v>
+        <v>12008</v>
       </c>
       <c r="N42">
         <v>204933</v>
@@ -6909,794 +6821,794 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43">
-        <v>0.07681286</v>
+        <v>0.05963452</v>
       </c>
       <c r="C43">
-        <v>0.0014987</v>
+        <v>0.00107101</v>
       </c>
       <c r="D43">
-        <v>0.1784407</v>
+        <v>0.09795207</v>
       </c>
       <c r="E43">
-        <v>0.00227169</v>
+        <v>0.00118215</v>
       </c>
       <c r="F43">
-        <v>1.88966274</v>
+        <v>0.80527788</v>
       </c>
       <c r="G43">
-        <v>0.03664477</v>
+        <v>0.01450291</v>
       </c>
       <c r="H43">
-        <v>0.05469348</v>
+        <v>0.03159827</v>
       </c>
       <c r="I43">
-        <v>0.00142417</v>
+        <v>0.00101091</v>
       </c>
       <c r="J43">
-        <v>12313</v>
+        <v>17750</v>
       </c>
       <c r="K43">
-        <v>925</v>
+        <v>1028</v>
       </c>
       <c r="L43">
-        <v>1328</v>
+        <v>353</v>
       </c>
       <c r="M43">
-        <v>25754</v>
+        <v>11786</v>
       </c>
       <c r="N43">
-        <v>76651</v>
+        <v>199439</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44">
-        <v>0.16330543</v>
+        <v>0.06020008</v>
       </c>
       <c r="C44">
-        <v>0.00231793</v>
+        <v>0.00105454</v>
       </c>
       <c r="D44">
-        <v>0.44766384</v>
+        <v>0.09724117</v>
       </c>
       <c r="E44">
-        <v>0.0052936</v>
+        <v>0.00116506</v>
       </c>
       <c r="F44">
-        <v>10.07809448</v>
+        <v>0.8070664400000001</v>
       </c>
       <c r="G44">
-        <v>0.14951037</v>
+        <v>0.01419273</v>
       </c>
       <c r="H44">
-        <v>0.12633729</v>
+        <v>0.02995238</v>
       </c>
       <c r="I44">
-        <v>0.0030079</v>
+        <v>0.0009481099999999999</v>
       </c>
       <c r="J44">
-        <v>252104</v>
+        <v>18149</v>
       </c>
       <c r="K44">
-        <v>40477</v>
+        <v>1065</v>
       </c>
       <c r="L44">
-        <v>5320</v>
+        <v>341</v>
       </c>
       <c r="M44">
-        <v>44482</v>
+        <v>12003</v>
       </c>
       <c r="N44">
-        <v>635513</v>
+        <v>204933</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45">
-        <v>0.12058843</v>
+        <v>0.07681286</v>
       </c>
       <c r="C45">
-        <v>0.00254442</v>
+        <v>0.0014987</v>
       </c>
       <c r="D45">
-        <v>0.37480021</v>
+        <v>0.1784407</v>
       </c>
       <c r="E45">
-        <v>0.00523004</v>
+        <v>0.00227169</v>
       </c>
       <c r="F45">
-        <v>6.23340034</v>
+        <v>1.88966274</v>
       </c>
       <c r="G45">
-        <v>0.13236764</v>
+        <v>0.03664477</v>
       </c>
       <c r="H45">
-        <v>0.10360395</v>
+        <v>0.05469348</v>
       </c>
       <c r="I45">
-        <v>0.00359562</v>
+        <v>0.00142417</v>
       </c>
       <c r="J45">
-        <v>48985</v>
+        <v>12313</v>
       </c>
       <c r="K45">
-        <v>5838</v>
+        <v>925</v>
       </c>
       <c r="L45">
-        <v>15817</v>
+        <v>1328</v>
       </c>
       <c r="M45">
-        <v>168499</v>
+        <v>25754</v>
       </c>
       <c r="N45">
-        <v>155015</v>
+        <v>76651</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46">
-        <v>0.12883869</v>
+        <v>0.16330543</v>
       </c>
       <c r="C46">
-        <v>0.00307945</v>
+        <v>0.00231793</v>
       </c>
       <c r="D46">
-        <v>0.2142458</v>
+        <v>0.44766384</v>
       </c>
       <c r="E46">
-        <v>0.00301393</v>
+        <v>0.0052936</v>
       </c>
       <c r="F46">
-        <v>3.80529809</v>
+        <v>10.07809448</v>
       </c>
       <c r="G46">
-        <v>0.08994521</v>
+        <v>0.14951037</v>
       </c>
       <c r="H46">
-        <v>0.03826614</v>
+        <v>0.12633729</v>
       </c>
       <c r="I46">
-        <v>0.0016692</v>
+        <v>0.0030079</v>
       </c>
       <c r="J46">
-        <v>88695</v>
+        <v>252104</v>
       </c>
       <c r="K46">
-        <v>11150</v>
+        <v>40477</v>
       </c>
       <c r="L46">
-        <v>13557</v>
+        <v>5320</v>
       </c>
       <c r="M46">
-        <v>392935</v>
+        <v>44482</v>
       </c>
       <c r="N46">
-        <v>479465</v>
+        <v>635513</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47">
-        <v>0.12299637</v>
+        <v>0.12058843</v>
       </c>
       <c r="C47">
-        <v>0.00248782</v>
+        <v>0.00254442</v>
       </c>
       <c r="D47">
-        <v>0.32631573</v>
+        <v>0.37480021</v>
       </c>
       <c r="E47">
-        <v>0.00443783</v>
+        <v>0.00523004</v>
       </c>
       <c r="F47">
-        <v>5.53642273</v>
+        <v>6.23340034</v>
       </c>
       <c r="G47">
-        <v>0.11392299</v>
+        <v>0.13236764</v>
       </c>
       <c r="H47">
-        <v>0.06686316</v>
+        <v>0.10360395</v>
       </c>
       <c r="I47">
-        <v>0.00242398</v>
+        <v>0.00359562</v>
       </c>
       <c r="J47">
-        <v>163647</v>
+        <v>48985</v>
       </c>
       <c r="K47">
-        <v>20018</v>
+        <v>5838</v>
       </c>
       <c r="L47">
-        <v>18318</v>
+        <v>15817</v>
       </c>
       <c r="M47">
-        <v>294284</v>
+        <v>168499</v>
       </c>
       <c r="N47">
-        <v>603373</v>
+        <v>155015</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48">
-        <v>0.13268897</v>
+        <v>0.12883869</v>
       </c>
       <c r="C48">
-        <v>0.00203862</v>
+        <v>0.00307945</v>
       </c>
       <c r="D48">
-        <v>0.36655265</v>
+        <v>0.2142458</v>
       </c>
       <c r="E48">
-        <v>0.00436533</v>
+        <v>0.00301393</v>
       </c>
       <c r="F48">
-        <v>6.70519447</v>
+        <v>3.80529809</v>
       </c>
       <c r="G48">
-        <v>0.10564994</v>
+        <v>0.08994521</v>
       </c>
       <c r="H48">
-        <v>0.10819405</v>
+        <v>0.03826614</v>
       </c>
       <c r="I48">
-        <v>0.00278888</v>
+        <v>0.0016692</v>
       </c>
       <c r="J48">
-        <v>115047</v>
+        <v>88695</v>
       </c>
       <c r="K48">
-        <v>14986</v>
+        <v>11150</v>
       </c>
       <c r="L48">
-        <v>8858</v>
+        <v>13557</v>
       </c>
       <c r="M48">
-        <v>87138</v>
+        <v>392935</v>
       </c>
       <c r="N48">
-        <v>349970</v>
+        <v>479465</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>0.17493497</v>
+        <v>0.12299637</v>
       </c>
       <c r="C49">
-        <v>0.00265133</v>
+        <v>0.00248782</v>
       </c>
       <c r="D49">
-        <v>0.46346131</v>
+        <v>0.32631573</v>
       </c>
       <c r="E49">
-        <v>0.0054994</v>
+        <v>0.00443783</v>
       </c>
       <c r="F49">
-        <v>11.17781162</v>
+        <v>5.53642273</v>
       </c>
       <c r="G49">
-        <v>0.17249794</v>
+        <v>0.11392299</v>
       </c>
       <c r="H49">
-        <v>0.11932084</v>
+        <v>0.06686316</v>
       </c>
       <c r="I49">
-        <v>0.00290802</v>
+        <v>0.00242398</v>
       </c>
       <c r="J49">
-        <v>41135</v>
+        <v>163647</v>
       </c>
       <c r="K49">
-        <v>7032</v>
+        <v>20018</v>
       </c>
       <c r="L49">
-        <v>6332</v>
+        <v>18318</v>
       </c>
       <c r="M49">
-        <v>56315</v>
+        <v>294284</v>
       </c>
       <c r="N49">
-        <v>97458</v>
+        <v>603373</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50">
-        <v>0.06117366</v>
+        <v>0.13268897</v>
       </c>
       <c r="C50">
-        <v>0.00142755</v>
+        <v>0.00203862</v>
       </c>
       <c r="D50">
-        <v>0.0703655</v>
+        <v>0.36655265</v>
       </c>
       <c r="E50">
-        <v>0.00093133</v>
+        <v>0.00436533</v>
       </c>
       <c r="F50">
-        <v>0.59342778</v>
+        <v>6.70519447</v>
       </c>
       <c r="G50">
-        <v>0.01362257</v>
+        <v>0.10564994</v>
       </c>
       <c r="H50">
-        <v>0.0242704</v>
+        <v>0.10819405</v>
       </c>
       <c r="I50">
-        <v>0.00068381</v>
+        <v>0.00278888</v>
       </c>
       <c r="J50">
-        <v>10377</v>
+        <v>115047</v>
       </c>
       <c r="K50">
-        <v>623</v>
+        <v>14986</v>
       </c>
       <c r="L50">
-        <v>3234</v>
+        <v>8858</v>
       </c>
       <c r="M50">
-        <v>141918</v>
+        <v>87138</v>
       </c>
       <c r="N50">
-        <v>164693</v>
+        <v>349970</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B51">
-        <v>0.05962247</v>
+        <v>0.17493497</v>
       </c>
       <c r="C51">
-        <v>0.00132273</v>
+        <v>0.00265133</v>
       </c>
       <c r="D51">
-        <v>0.07970360999999999</v>
+        <v>0.46346131</v>
       </c>
       <c r="E51">
-        <v>0.00102589</v>
+        <v>0.0054994</v>
       </c>
       <c r="F51">
-        <v>0.65515471</v>
+        <v>11.17781162</v>
       </c>
       <c r="G51">
-        <v>0.01432324</v>
+        <v>0.17249794</v>
       </c>
       <c r="H51">
-        <v>0.0248712</v>
+        <v>0.11932084</v>
       </c>
       <c r="I51">
-        <v>0.0006717</v>
+        <v>0.00290802</v>
       </c>
       <c r="J51">
-        <v>9656</v>
+        <v>41135</v>
       </c>
       <c r="K51">
-        <v>562</v>
+        <v>7032</v>
       </c>
       <c r="L51">
-        <v>2670</v>
+        <v>6332</v>
       </c>
       <c r="M51">
-        <v>114186</v>
+        <v>56315</v>
       </c>
       <c r="N51">
-        <v>133781</v>
+        <v>97458</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B52">
-        <v>0.11680959</v>
+        <v>0.06117366</v>
       </c>
       <c r="C52">
-        <v>0.00271675</v>
+        <v>0.00142755</v>
       </c>
       <c r="D52">
-        <v>0.33444476</v>
+        <v>0.0703655</v>
       </c>
       <c r="E52">
-        <v>0.00468941</v>
+        <v>0.00093133</v>
       </c>
       <c r="F52">
-        <v>5.38571978</v>
+        <v>0.59342778</v>
       </c>
       <c r="G52">
-        <v>0.12358516</v>
+        <v>0.01362257</v>
       </c>
       <c r="H52">
-        <v>0.0851449</v>
+        <v>0.0242704</v>
       </c>
       <c r="I52">
-        <v>0.00339514</v>
+        <v>0.00068381</v>
       </c>
       <c r="J52">
-        <v>31803</v>
+        <v>10377</v>
       </c>
       <c r="K52">
-        <v>3641</v>
+        <v>623</v>
       </c>
       <c r="L52">
-        <v>6054</v>
+        <v>3234</v>
       </c>
       <c r="M52">
-        <v>77537</v>
+        <v>141918</v>
       </c>
       <c r="N52">
-        <v>108553</v>
+        <v>164693</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B53">
-        <v>0.07178279</v>
+        <v>0.05962247</v>
       </c>
       <c r="C53">
-        <v>0.0017252</v>
+        <v>0.00132273</v>
       </c>
       <c r="D53">
-        <v>0.0747181</v>
+        <v>0.07970360999999999</v>
       </c>
       <c r="E53">
-        <v>0.00104357</v>
+        <v>0.00102589</v>
       </c>
       <c r="F53">
-        <v>0.73946917</v>
+        <v>0.65515471</v>
       </c>
       <c r="G53">
-        <v>0.01756333</v>
+        <v>0.01432324</v>
       </c>
       <c r="H53">
-        <v>0.02106762</v>
+        <v>0.0248712</v>
       </c>
       <c r="I53">
-        <v>0.00074356</v>
+        <v>0.0006717</v>
       </c>
       <c r="J53">
-        <v>20573</v>
+        <v>9656</v>
       </c>
       <c r="K53">
-        <v>1461</v>
+        <v>562</v>
       </c>
       <c r="L53">
-        <v>6345</v>
+        <v>2670</v>
       </c>
       <c r="M53">
-        <v>322902</v>
+        <v>114186</v>
       </c>
       <c r="N53">
-        <v>321463</v>
+        <v>133781</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B54">
-        <v>0.11659816</v>
+        <v>0.11680959</v>
       </c>
       <c r="C54">
-        <v>0.00198302</v>
+        <v>0.00271675</v>
       </c>
       <c r="D54">
-        <v>0.3374851</v>
+        <v>0.33444476</v>
       </c>
       <c r="E54">
-        <v>0.00409315</v>
+        <v>0.00468941</v>
       </c>
       <c r="F54">
-        <v>5.42515659</v>
+        <v>5.38571978</v>
       </c>
       <c r="G54">
-        <v>0.09269689</v>
+        <v>0.12358516</v>
       </c>
       <c r="H54">
-        <v>0.09958141</v>
+        <v>0.0851449</v>
       </c>
       <c r="I54">
-        <v>0.00281751</v>
+        <v>0.00339514</v>
       </c>
       <c r="J54">
-        <v>33430</v>
+        <v>31803</v>
       </c>
       <c r="K54">
-        <v>3816</v>
+        <v>3641</v>
       </c>
       <c r="L54">
-        <v>4963</v>
+        <v>6054</v>
       </c>
       <c r="M54">
-        <v>53119</v>
+        <v>77537</v>
       </c>
       <c r="N54">
-        <v>108810</v>
+        <v>108553</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55">
-        <v>0.11466347</v>
+        <v>0.07178279</v>
       </c>
       <c r="C55">
-        <v>0.00258814</v>
+        <v>0.0017252</v>
       </c>
       <c r="D55">
-        <v>0.32545274</v>
+        <v>0.0747181</v>
       </c>
       <c r="E55">
-        <v>0.00454564</v>
+        <v>0.00104357</v>
       </c>
       <c r="F55">
-        <v>5.14422464</v>
+        <v>0.73946917</v>
       </c>
       <c r="G55">
-        <v>0.11600349</v>
+        <v>0.01756333</v>
       </c>
       <c r="H55">
-        <v>0.08539285000000001</v>
+        <v>0.02106762</v>
       </c>
       <c r="I55">
-        <v>0.00350633</v>
+        <v>0.00074356</v>
       </c>
       <c r="J55">
-        <v>72520</v>
+        <v>20573</v>
       </c>
       <c r="K55">
-        <v>8295</v>
+        <v>1461</v>
       </c>
       <c r="L55">
-        <v>9386</v>
+        <v>6345</v>
       </c>
       <c r="M55">
-        <v>117272</v>
+        <v>322902</v>
       </c>
       <c r="N55">
-        <v>263975</v>
+        <v>321463</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56">
-        <v>0.09473076</v>
+        <v>0.11659816</v>
       </c>
       <c r="C56">
-        <v>0.00321679</v>
+        <v>0.00198302</v>
       </c>
       <c r="D56">
-        <v>0.07798088</v>
+        <v>0.3374851</v>
       </c>
       <c r="E56">
-        <v>0.0013203</v>
+        <v>0.00409315</v>
       </c>
       <c r="F56">
-        <v>1.01842105</v>
+        <v>5.42515659</v>
       </c>
       <c r="G56">
-        <v>0.03297507</v>
+        <v>0.09269689</v>
       </c>
       <c r="H56">
-        <v>0.02422056</v>
+        <v>0.09958141</v>
       </c>
       <c r="I56">
-        <v>0.0009775000000000001</v>
+        <v>0.00281751</v>
       </c>
       <c r="J56">
-        <v>5304</v>
+        <v>33430</v>
       </c>
       <c r="K56">
-        <v>493</v>
+        <v>3816</v>
       </c>
       <c r="L56">
-        <v>11386</v>
+        <v>4963</v>
       </c>
       <c r="M56">
-        <v>508278</v>
+        <v>53119</v>
       </c>
       <c r="N56">
-        <v>77389</v>
+        <v>108810</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57">
-        <v>0.06669851</v>
+        <v>0.11466347</v>
       </c>
       <c r="C57">
-        <v>0.00156113</v>
+        <v>0.00258814</v>
       </c>
       <c r="D57">
-        <v>0.13605298</v>
+        <v>0.32545274</v>
       </c>
       <c r="E57">
-        <v>0.00182421</v>
+        <v>0.00454564</v>
       </c>
       <c r="F57">
-        <v>1.25107896</v>
+        <v>5.14422464</v>
       </c>
       <c r="G57">
-        <v>0.02884082</v>
+        <v>0.11600349</v>
       </c>
       <c r="H57">
-        <v>0.04242052</v>
+        <v>0.08539285000000001</v>
       </c>
       <c r="I57">
-        <v>0.0015424</v>
+        <v>0.00350633</v>
       </c>
       <c r="J57">
-        <v>14762</v>
+        <v>72520</v>
       </c>
       <c r="K57">
-        <v>966</v>
+        <v>8295</v>
       </c>
       <c r="L57">
-        <v>1719</v>
+        <v>9386</v>
       </c>
       <c r="M57">
-        <v>43335</v>
+        <v>117272</v>
       </c>
       <c r="N57">
-        <v>121549</v>
+        <v>263975</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58">
-        <v>0.05632528</v>
+        <v>0.09473076</v>
       </c>
       <c r="C58">
-        <v>0.00120608</v>
+        <v>0.00321679</v>
       </c>
       <c r="D58">
-        <v>0.08072696</v>
+        <v>0.07798088</v>
       </c>
       <c r="E58">
-        <v>0.00103923</v>
+        <v>0.0013203</v>
       </c>
       <c r="F58">
-        <v>0.62688375</v>
+        <v>1.01842105</v>
       </c>
       <c r="G58">
-        <v>0.0133345</v>
+        <v>0.03297507</v>
       </c>
       <c r="H58">
-        <v>0.02558704</v>
+        <v>0.02422056</v>
       </c>
       <c r="I58">
-        <v>0.00091409</v>
+        <v>0.0009775000000000001</v>
       </c>
       <c r="J58">
-        <v>30997</v>
+        <v>5304</v>
       </c>
       <c r="K58">
-        <v>1718</v>
+        <v>493</v>
       </c>
       <c r="L58">
-        <v>3527</v>
+        <v>11386</v>
       </c>
       <c r="M58">
-        <v>147652</v>
+        <v>508278</v>
       </c>
       <c r="N58">
-        <v>430036</v>
+        <v>77389</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59">
-        <v>0.06006344</v>
+        <v>0.06669851</v>
       </c>
       <c r="C59">
-        <v>0.00127474</v>
+        <v>0.00156113</v>
       </c>
       <c r="D59">
-        <v>0.0977174</v>
+        <v>0.13605298</v>
       </c>
       <c r="E59">
-        <v>0.00124027</v>
+        <v>0.00182421</v>
       </c>
       <c r="F59">
-        <v>0.8091839</v>
+        <v>1.25107896</v>
       </c>
       <c r="G59">
-        <v>0.01696362</v>
+        <v>0.02884082</v>
       </c>
       <c r="H59">
-        <v>0.03195508</v>
+        <v>0.04242052</v>
       </c>
       <c r="I59">
-        <v>0.00129572</v>
+        <v>0.0015424</v>
       </c>
       <c r="J59">
-        <v>16638</v>
+        <v>14762</v>
       </c>
       <c r="K59">
-        <v>981</v>
+        <v>966</v>
       </c>
       <c r="L59">
-        <v>328</v>
+        <v>1719</v>
       </c>
       <c r="M59">
-        <v>11012</v>
+        <v>43335</v>
       </c>
       <c r="N59">
-        <v>187364</v>
+        <v>121549</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60">
-        <v>0.06023676</v>
+        <v>0.05632528</v>
       </c>
       <c r="C60">
-        <v>0.00129172</v>
+        <v>0.00120608</v>
       </c>
       <c r="D60">
-        <v>0.09751479</v>
+        <v>0.08072696</v>
       </c>
       <c r="E60">
-        <v>0.00124158</v>
+        <v>0.00103923</v>
       </c>
       <c r="F60">
-        <v>0.80983448</v>
+        <v>0.62688375</v>
       </c>
       <c r="G60">
-        <v>0.01714048</v>
+        <v>0.0133345</v>
       </c>
       <c r="H60">
-        <v>0.02978652</v>
+        <v>0.02558704</v>
       </c>
       <c r="I60">
-        <v>0.00123464</v>
+        <v>0.00091409</v>
       </c>
       <c r="J60">
-        <v>17168</v>
+        <v>30997</v>
       </c>
       <c r="K60">
-        <v>1014</v>
+        <v>1718</v>
       </c>
       <c r="L60">
-        <v>319</v>
+        <v>3527</v>
       </c>
       <c r="M60">
-        <v>11506</v>
+        <v>147652</v>
       </c>
       <c r="N60">
-        <v>193700</v>
+        <v>430036</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -7704,43 +7616,43 @@
         <v>56</v>
       </c>
       <c r="B61">
-        <v>0.06023009</v>
+        <v>0.06006344</v>
       </c>
       <c r="C61">
-        <v>0.001083</v>
+        <v>0.00127474</v>
       </c>
       <c r="D61">
-        <v>0.09768652</v>
+        <v>0.0977174</v>
       </c>
       <c r="E61">
-        <v>0.001179</v>
+        <v>0.00124027</v>
       </c>
       <c r="F61">
-        <v>0.81117648</v>
+        <v>0.8091839</v>
       </c>
       <c r="G61">
-        <v>0.01459117</v>
+        <v>0.01696362</v>
       </c>
       <c r="H61">
-        <v>0.0319346</v>
+        <v>0.03195508</v>
       </c>
       <c r="I61">
-        <v>0.00104124</v>
+        <v>0.00129572</v>
       </c>
       <c r="J61">
-        <v>16569</v>
+        <v>16638</v>
       </c>
       <c r="K61">
-        <v>978</v>
+        <v>981</v>
       </c>
       <c r="L61">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M61">
-        <v>10932</v>
+        <v>11012</v>
       </c>
       <c r="N61">
-        <v>186189</v>
+        <v>187364</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -7748,28 +7660,28 @@
         <v>57</v>
       </c>
       <c r="B62">
-        <v>0.06023022</v>
+        <v>0.06023676</v>
       </c>
       <c r="C62">
-        <v>0.00106811</v>
+        <v>0.00129172</v>
       </c>
       <c r="D62">
-        <v>0.09756062</v>
+        <v>0.09751479</v>
       </c>
       <c r="E62">
-        <v>0.00117632</v>
+        <v>0.00124158</v>
       </c>
       <c r="F62">
-        <v>0.81013072</v>
+        <v>0.80983448</v>
       </c>
       <c r="G62">
-        <v>0.01440507</v>
+        <v>0.01714048</v>
       </c>
       <c r="H62">
-        <v>0.02963333</v>
+        <v>0.02978652</v>
       </c>
       <c r="I62">
-        <v>0.00096207</v>
+        <v>0.00123464</v>
       </c>
       <c r="J62">
         <v>17168</v>
@@ -7789,837 +7701,925 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B63">
-        <v>0.07588055</v>
+        <v>0.06023009</v>
       </c>
       <c r="C63">
-        <v>0.00151692</v>
+        <v>0.001083</v>
       </c>
       <c r="D63">
-        <v>0.17756175</v>
+        <v>0.09768652</v>
       </c>
       <c r="E63">
-        <v>0.0022882</v>
+        <v>0.001179</v>
       </c>
       <c r="F63">
-        <v>1.85756671</v>
+        <v>0.81117648</v>
       </c>
       <c r="G63">
-        <v>0.03684847</v>
+        <v>0.01459117</v>
       </c>
       <c r="H63">
-        <v>0.05509407</v>
+        <v>0.0319346</v>
       </c>
       <c r="I63">
-        <v>0.00147119</v>
+        <v>0.00104124</v>
       </c>
       <c r="J63">
-        <v>11709</v>
+        <v>16569</v>
       </c>
       <c r="K63">
-        <v>877</v>
+        <v>978</v>
       </c>
       <c r="L63">
-        <v>1267</v>
+        <v>327</v>
       </c>
       <c r="M63">
-        <v>24569</v>
+        <v>10932</v>
       </c>
       <c r="N63">
-        <v>73623</v>
+        <v>186189</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B64">
-        <v>0.05591814</v>
+        <v>0.06023022</v>
       </c>
       <c r="C64">
-        <v>0.00136867</v>
+        <v>0.00106811</v>
       </c>
       <c r="D64">
-        <v>0.06089099</v>
+        <v>0.09756062</v>
       </c>
       <c r="E64">
-        <v>0.00081047</v>
+        <v>0.00117632</v>
       </c>
       <c r="F64">
-        <v>0.46942955</v>
+        <v>0.81013072</v>
       </c>
       <c r="G64">
-        <v>0.01127488</v>
+        <v>0.01440507</v>
       </c>
       <c r="H64">
-        <v>0.02044878</v>
+        <v>0.02963333</v>
       </c>
       <c r="I64">
-        <v>0.00053818</v>
+        <v>0.00096207</v>
       </c>
       <c r="J64">
-        <v>8027</v>
+        <v>17168</v>
       </c>
       <c r="K64">
-        <v>443</v>
+        <v>1014</v>
       </c>
       <c r="L64">
-        <v>1538</v>
+        <v>319</v>
       </c>
       <c r="M64">
-        <v>80469</v>
+        <v>11506</v>
       </c>
       <c r="N64">
-        <v>146936</v>
+        <v>193700</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B65">
-        <v>0.11247832</v>
+        <v>0.07588055</v>
       </c>
       <c r="C65">
-        <v>0.00166892</v>
+        <v>0.00151692</v>
       </c>
       <c r="D65">
-        <v>0.3338429</v>
+        <v>0.17756175</v>
       </c>
       <c r="E65">
-        <v>0.00393533</v>
+        <v>0.0022882</v>
       </c>
       <c r="F65">
-        <v>5.17700768</v>
+        <v>1.85756671</v>
       </c>
       <c r="G65">
-        <v>0.07851086</v>
+        <v>0.03684847</v>
       </c>
       <c r="H65">
-        <v>0.09503457999999999</v>
+        <v>0.05509407</v>
       </c>
       <c r="I65">
-        <v>0.00214415</v>
+        <v>0.00147119</v>
       </c>
       <c r="J65">
-        <v>39193</v>
+        <v>11709</v>
       </c>
       <c r="K65">
-        <v>4332</v>
+        <v>877</v>
       </c>
       <c r="L65">
-        <v>5654</v>
+        <v>1267</v>
       </c>
       <c r="M65">
-        <v>63359</v>
+        <v>24569</v>
       </c>
       <c r="N65">
-        <v>129292</v>
+        <v>73623</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B66">
-        <v>0.11168011</v>
+        <v>0.05591814</v>
       </c>
       <c r="C66">
-        <v>0.00363021</v>
+        <v>0.00136867</v>
       </c>
       <c r="D66">
-        <v>0.33359912</v>
+        <v>0.06089099</v>
       </c>
       <c r="E66">
-        <v>0.00609949</v>
+        <v>0.00081047</v>
       </c>
       <c r="F66">
-        <v>5.13700056</v>
+        <v>0.46942955</v>
       </c>
       <c r="G66">
-        <v>0.16063486</v>
+        <v>0.01127488</v>
       </c>
       <c r="H66">
-        <v>0.08542246000000001</v>
+        <v>0.02044878</v>
       </c>
       <c r="I66">
-        <v>0.00349935</v>
+        <v>0.00053818</v>
       </c>
       <c r="J66">
-        <v>8756</v>
+        <v>8027</v>
       </c>
       <c r="K66">
-        <v>983</v>
+        <v>443</v>
       </c>
       <c r="L66">
-        <v>2180</v>
+        <v>1538</v>
       </c>
       <c r="M66">
-        <v>26697</v>
+        <v>80469</v>
       </c>
       <c r="N66">
-        <v>31391</v>
+        <v>146936</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B67">
-        <v>0.18385829</v>
+        <v>0.11247832</v>
       </c>
       <c r="C67">
-        <v>0.00458575</v>
+        <v>0.00166892</v>
       </c>
       <c r="D67">
-        <v>0.51385707</v>
+        <v>0.3338429</v>
       </c>
       <c r="E67">
-        <v>0.0081776</v>
+        <v>0.00393533</v>
       </c>
       <c r="F67">
-        <v>13.02418423</v>
+        <v>5.17700768</v>
       </c>
       <c r="G67">
-        <v>0.31324014</v>
+        <v>0.07851086</v>
       </c>
       <c r="H67">
-        <v>0.13973019</v>
+        <v>0.09503457999999999</v>
       </c>
       <c r="I67">
-        <v>0.00498043</v>
+        <v>0.00214415</v>
       </c>
       <c r="J67">
-        <v>8225</v>
+        <v>39193</v>
       </c>
       <c r="K67">
-        <v>1493</v>
+        <v>4332</v>
       </c>
       <c r="L67">
-        <v>6174</v>
+        <v>5654</v>
       </c>
       <c r="M67">
-        <v>46237</v>
+        <v>63359</v>
       </c>
       <c r="N67">
-        <v>17314</v>
+        <v>129292</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B68">
-        <v>0.11540873</v>
+        <v>0.11168011</v>
       </c>
       <c r="C68">
-        <v>0.00188057</v>
+        <v>0.00363021</v>
       </c>
       <c r="D68">
-        <v>0.33280069</v>
+        <v>0.33359912</v>
       </c>
       <c r="E68">
-        <v>0.00405957</v>
+        <v>0.00609949</v>
       </c>
       <c r="F68">
-        <v>5.2953105</v>
+        <v>5.13700056</v>
       </c>
       <c r="G68">
-        <v>0.08701488</v>
+        <v>0.16063486</v>
       </c>
       <c r="H68">
-        <v>0.09952312000000001</v>
+        <v>0.08542246000000001</v>
       </c>
       <c r="I68">
-        <v>0.0023465</v>
+        <v>0.00349935</v>
       </c>
       <c r="J68">
-        <v>19693</v>
+        <v>8756</v>
       </c>
       <c r="K68">
-        <v>2236</v>
+        <v>983</v>
       </c>
       <c r="L68">
-        <v>6690</v>
+        <v>2180</v>
       </c>
       <c r="M68">
-        <v>71346</v>
+        <v>26697</v>
       </c>
       <c r="N68">
-        <v>65233</v>
+        <v>31391</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B69">
-        <v>0.05713838</v>
+        <v>0.18385829</v>
       </c>
       <c r="C69">
-        <v>0.00162037</v>
+        <v>0.00458575</v>
       </c>
       <c r="D69">
-        <v>0.08036897</v>
+        <v>0.51385707</v>
       </c>
       <c r="E69">
-        <v>0.00113167</v>
+        <v>0.0081776</v>
       </c>
       <c r="F69">
-        <v>0.63304847</v>
+        <v>13.02418423</v>
       </c>
       <c r="G69">
-        <v>0.01747628</v>
+        <v>0.31324014</v>
       </c>
       <c r="H69">
-        <v>0.0264909</v>
+        <v>0.13973019</v>
       </c>
       <c r="I69">
-        <v>0.00113653</v>
+        <v>0.00498043</v>
       </c>
       <c r="J69">
-        <v>25848</v>
+        <v>8225</v>
       </c>
       <c r="K69">
-        <v>1435</v>
+        <v>1493</v>
       </c>
       <c r="L69">
-        <v>5461</v>
+        <v>6174</v>
       </c>
       <c r="M69">
-        <v>219352</v>
+        <v>46237</v>
       </c>
       <c r="N69">
-        <v>352706</v>
+        <v>17314</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B70">
-        <v>0.11511456</v>
+        <v>0.11540873</v>
       </c>
       <c r="C70">
-        <v>0.00178306</v>
+        <v>0.00188057</v>
       </c>
       <c r="D70">
-        <v>0.33271149</v>
+        <v>0.33280069</v>
       </c>
       <c r="E70">
-        <v>0.00394848</v>
+        <v>0.00405957</v>
       </c>
       <c r="F70">
-        <v>5.28034306</v>
+        <v>5.2953105</v>
       </c>
       <c r="G70">
-        <v>0.08356901999999999</v>
+        <v>0.08701488</v>
       </c>
       <c r="H70">
-        <v>0.09435288</v>
+        <v>0.09952312000000001</v>
       </c>
       <c r="I70">
-        <v>0.00243705</v>
+        <v>0.0023465</v>
       </c>
       <c r="J70">
-        <v>140014</v>
+        <v>19693</v>
       </c>
       <c r="K70">
-        <v>15871</v>
+        <v>2236</v>
       </c>
       <c r="L70">
-        <v>16767</v>
+        <v>6690</v>
       </c>
       <c r="M70">
-        <v>188077</v>
+        <v>71346</v>
       </c>
       <c r="N70">
-        <v>467969</v>
+        <v>65233</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B71">
-        <v>0.1514342</v>
+        <v>0.05713838</v>
       </c>
       <c r="C71">
-        <v>0.00421755</v>
+        <v>0.00162037</v>
       </c>
       <c r="D71">
-        <v>0.42633954</v>
+        <v>0.08036897</v>
       </c>
       <c r="E71">
-        <v>0.00659065</v>
+        <v>0.00113167</v>
       </c>
       <c r="F71">
-        <v>8.9004879</v>
+        <v>0.63304847</v>
       </c>
       <c r="G71">
-        <v>0.24280446</v>
+        <v>0.01747628</v>
       </c>
       <c r="H71">
-        <v>0.10002673</v>
+        <v>0.0264909</v>
       </c>
       <c r="I71">
-        <v>0.00511662</v>
+        <v>0.00113653</v>
       </c>
       <c r="J71">
-        <v>196596</v>
+        <v>25848</v>
       </c>
       <c r="K71">
-        <v>30087</v>
+        <v>1435</v>
       </c>
       <c r="L71">
-        <v>41158</v>
+        <v>5461</v>
       </c>
       <c r="M71">
-        <v>408923</v>
+        <v>219352</v>
       </c>
       <c r="N71">
-        <v>568883</v>
+        <v>352706</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B72">
-        <v>0.06818251</v>
+        <v>0.11511456</v>
       </c>
       <c r="C72">
-        <v>0.00187624</v>
+        <v>0.00178306</v>
       </c>
       <c r="D72">
-        <v>0.09997316000000001</v>
+        <v>0.33271149</v>
       </c>
       <c r="E72">
-        <v>0.0014835</v>
+        <v>0.00394848</v>
       </c>
       <c r="F72">
-        <v>0.93976551</v>
+        <v>5.28034306</v>
       </c>
       <c r="G72">
-        <v>0.02525483</v>
+        <v>0.08356901999999999</v>
       </c>
       <c r="H72">
-        <v>0.02738062</v>
+        <v>0.09435288</v>
       </c>
       <c r="I72">
-        <v>0.00115137</v>
+        <v>0.00243705</v>
       </c>
       <c r="J72">
-        <v>35070</v>
+        <v>140014</v>
       </c>
       <c r="K72">
-        <v>2385</v>
+        <v>15871</v>
       </c>
       <c r="L72">
-        <v>9855</v>
+        <v>16767</v>
       </c>
       <c r="M72">
-        <v>367488</v>
+        <v>188077</v>
       </c>
       <c r="N72">
-        <v>418174</v>
+        <v>467969</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B73">
-        <v>0.05497244</v>
+        <v>0.1514342</v>
       </c>
       <c r="C73">
-        <v>0.00209712</v>
+        <v>0.00421755</v>
       </c>
       <c r="D73">
-        <v>0.05948197</v>
+        <v>0.42633954</v>
       </c>
       <c r="E73">
-        <v>0.00100209</v>
+        <v>0.00659065</v>
       </c>
       <c r="F73">
-        <v>0.45080668</v>
+        <v>8.9004879</v>
       </c>
       <c r="G73">
-        <v>0.01659399</v>
+        <v>0.24280446</v>
       </c>
       <c r="H73">
-        <v>0.01779495</v>
+        <v>0.10002673</v>
       </c>
       <c r="I73">
-        <v>0.0007722300000000001</v>
+        <v>0.00511662</v>
       </c>
       <c r="J73">
-        <v>10588</v>
+        <v>196596</v>
       </c>
       <c r="K73">
-        <v>583</v>
+        <v>30087</v>
       </c>
       <c r="L73">
-        <v>4259</v>
+        <v>41158</v>
       </c>
       <c r="M73">
-        <v>247701</v>
+        <v>408923</v>
       </c>
       <c r="N73">
-        <v>210067</v>
+        <v>568883</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B74">
-        <v>0.05383626</v>
+        <v>0.06818251</v>
       </c>
       <c r="C74">
-        <v>0.00190171</v>
+        <v>0.00187624</v>
       </c>
       <c r="D74">
-        <v>0.0563283</v>
+        <v>0.09997316000000001</v>
       </c>
       <c r="E74">
-        <v>0.00090754</v>
+        <v>0.0014835</v>
       </c>
       <c r="F74">
-        <v>0.41807088</v>
+        <v>0.93976551</v>
       </c>
       <c r="G74">
-        <v>0.01427143</v>
+        <v>0.02525483</v>
       </c>
       <c r="H74">
-        <v>0.01376718</v>
+        <v>0.02738062</v>
       </c>
       <c r="I74">
-        <v>0.00061244</v>
+        <v>0.00115137</v>
       </c>
       <c r="J74">
-        <v>14408</v>
+        <v>35070</v>
       </c>
       <c r="K74">
-        <v>775</v>
+        <v>2385</v>
       </c>
       <c r="L74">
-        <v>4855</v>
+        <v>9855</v>
       </c>
       <c r="M74">
-        <v>364876</v>
+        <v>367488</v>
       </c>
       <c r="N74">
-        <v>301068</v>
+        <v>418174</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B75">
-        <v>0.17937024</v>
+        <v>0.05497244</v>
       </c>
       <c r="C75">
-        <v>0.00437771</v>
+        <v>0.00209712</v>
       </c>
       <c r="D75">
-        <v>0.48978382</v>
+        <v>0.05948197</v>
       </c>
       <c r="E75">
-        <v>0.00712275</v>
+        <v>0.00100209</v>
       </c>
       <c r="F75">
-        <v>12.11128712</v>
+        <v>0.45080668</v>
       </c>
       <c r="G75">
-        <v>0.28901926</v>
+        <v>0.01659399</v>
       </c>
       <c r="H75">
-        <v>0.12799101</v>
+        <v>0.01779495</v>
       </c>
       <c r="I75">
-        <v>0.00559951</v>
+        <v>0.0007722300000000001</v>
       </c>
       <c r="J75">
-        <v>53662</v>
+        <v>10588</v>
       </c>
       <c r="K75">
-        <v>9619</v>
+        <v>583</v>
       </c>
       <c r="L75">
-        <v>14038</v>
+        <v>4259</v>
       </c>
       <c r="M75">
-        <v>113850</v>
+        <v>247701</v>
       </c>
       <c r="N75">
-        <v>128890</v>
+        <v>210067</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B76">
-        <v>0.12159556</v>
+        <v>0.05383626</v>
       </c>
       <c r="C76">
-        <v>0.00269646</v>
+        <v>0.00190171</v>
       </c>
       <c r="D76">
-        <v>0.34821829</v>
+        <v>0.0563283</v>
       </c>
       <c r="E76">
-        <v>0.00468153</v>
+        <v>0.00090754</v>
       </c>
       <c r="F76">
-        <v>5.83740377</v>
+        <v>0.41807088</v>
       </c>
       <c r="G76">
-        <v>0.12754891</v>
+        <v>0.01427143</v>
       </c>
       <c r="H76">
-        <v>0.1039528</v>
+        <v>0.01376718</v>
       </c>
       <c r="I76">
-        <v>0.00412887</v>
+        <v>0.00061244</v>
       </c>
       <c r="J76">
-        <v>47405</v>
+        <v>14408</v>
       </c>
       <c r="K76">
-        <v>5682</v>
+        <v>775</v>
       </c>
       <c r="L76">
-        <v>11583</v>
+        <v>4855</v>
       </c>
       <c r="M76">
-        <v>121071</v>
+        <v>364876</v>
       </c>
       <c r="N76">
-        <v>153510</v>
+        <v>301068</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="A77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B77">
-        <v>0.05693299</v>
+        <v>0.17937024</v>
       </c>
       <c r="C77">
-        <v>0.00162462</v>
+        <v>0.00437771</v>
       </c>
       <c r="D77">
-        <v>0.08152818000000001</v>
+        <v>0.48978382</v>
       </c>
       <c r="E77">
-        <v>0.00115814</v>
+        <v>0.00712275</v>
       </c>
       <c r="F77">
-        <v>0.63992387</v>
+        <v>12.11128712</v>
       </c>
       <c r="G77">
-        <v>0.01776151</v>
+        <v>0.28901926</v>
       </c>
       <c r="H77">
-        <v>0.0265804</v>
+        <v>0.12799101</v>
       </c>
       <c r="I77">
-        <v>0.00100172</v>
+        <v>0.00559951</v>
       </c>
       <c r="J77">
-        <v>7637</v>
+        <v>53662</v>
       </c>
       <c r="K77">
-        <v>428</v>
+        <v>9619</v>
       </c>
       <c r="L77">
-        <v>934</v>
+        <v>14038</v>
       </c>
       <c r="M77">
-        <v>37492</v>
+        <v>113850</v>
       </c>
       <c r="N77">
-        <v>104339</v>
+        <v>128890</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B78">
-        <v>0.1159955</v>
+        <v>0.12159556</v>
       </c>
       <c r="C78">
-        <v>0.00269918</v>
+        <v>0.00269646</v>
       </c>
       <c r="D78">
-        <v>0.34151149</v>
+        <v>0.34821829</v>
       </c>
       <c r="E78">
-        <v>0.00478169</v>
+        <v>0.00468153</v>
       </c>
       <c r="F78">
-        <v>5.46056604</v>
+        <v>5.83740377</v>
       </c>
       <c r="G78">
-        <v>0.12470795</v>
+        <v>0.12754891</v>
       </c>
       <c r="H78">
-        <v>0.09774176</v>
+        <v>0.1039528</v>
       </c>
       <c r="I78">
-        <v>0.00396447</v>
+        <v>0.00412887</v>
       </c>
       <c r="J78">
-        <v>32877</v>
+        <v>47405</v>
       </c>
       <c r="K78">
-        <v>3790</v>
+        <v>5682</v>
       </c>
       <c r="L78">
-        <v>4374</v>
+        <v>11583</v>
       </c>
       <c r="M78">
-        <v>46638</v>
+        <v>121071</v>
       </c>
       <c r="N78">
-        <v>111335</v>
+        <v>153510</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B79">
-        <v>0.11538436</v>
+        <v>0.05693299</v>
       </c>
       <c r="C79">
-        <v>0.00216822</v>
+        <v>0.00162462</v>
       </c>
       <c r="D79">
-        <v>0.3123807</v>
+        <v>0.08152818000000001</v>
       </c>
       <c r="E79">
-        <v>0.00395944</v>
+        <v>0.00115814</v>
       </c>
       <c r="F79">
-        <v>4.96930408</v>
+        <v>0.63992387</v>
       </c>
       <c r="G79">
-        <v>0.09317321000000001</v>
+        <v>0.01776151</v>
       </c>
       <c r="H79">
-        <v>0.09330571</v>
+        <v>0.0265804</v>
       </c>
       <c r="I79">
-        <v>0.00292294</v>
+        <v>0.00100172</v>
       </c>
       <c r="J79">
-        <v>25877</v>
+        <v>7637</v>
       </c>
       <c r="K79">
-        <v>2950</v>
+        <v>428</v>
       </c>
       <c r="L79">
-        <v>4253</v>
+        <v>934</v>
       </c>
       <c r="M79">
-        <v>47360</v>
+        <v>37492</v>
       </c>
       <c r="N79">
-        <v>92675</v>
+        <v>104339</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B80">
-        <v>0.05950226</v>
+        <v>0.1159955</v>
       </c>
       <c r="C80">
-        <v>0.00126124</v>
+        <v>0.00269918</v>
       </c>
       <c r="D80">
-        <v>0.09753357999999999</v>
+        <v>0.34151149</v>
       </c>
       <c r="E80">
-        <v>0.00124167</v>
+        <v>0.00478169</v>
       </c>
       <c r="F80">
-        <v>0.80012286</v>
+        <v>5.46056604</v>
       </c>
       <c r="G80">
-        <v>0.01676968</v>
+        <v>0.12470795</v>
       </c>
       <c r="H80">
-        <v>0.03057252</v>
+        <v>0.09774176</v>
       </c>
       <c r="I80">
-        <v>0.00121863</v>
+        <v>0.00396447</v>
       </c>
       <c r="J80">
-        <v>17024</v>
+        <v>32877</v>
       </c>
       <c r="K80">
-        <v>1000</v>
+        <v>3790</v>
       </c>
       <c r="L80">
-        <v>337</v>
+        <v>4374</v>
       </c>
       <c r="M80">
-        <v>11629</v>
+        <v>46638</v>
       </c>
       <c r="N80">
-        <v>192801</v>
+        <v>111335</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="A81" t="s">
+        <v>74</v>
+      </c>
+      <c r="B81">
+        <v>0.11538436</v>
+      </c>
+      <c r="C81">
+        <v>0.00216822</v>
+      </c>
+      <c r="D81">
+        <v>0.3123807</v>
+      </c>
+      <c r="E81">
+        <v>0.00395944</v>
+      </c>
+      <c r="F81">
+        <v>4.96930408</v>
+      </c>
+      <c r="G81">
+        <v>0.09317321000000001</v>
+      </c>
+      <c r="H81">
+        <v>0.09330571</v>
+      </c>
+      <c r="I81">
+        <v>0.00292294</v>
+      </c>
+      <c r="J81">
+        <v>25877</v>
+      </c>
+      <c r="K81">
+        <v>2950</v>
+      </c>
+      <c r="L81">
+        <v>4253</v>
+      </c>
+      <c r="M81">
+        <v>47360</v>
+      </c>
+      <c r="N81">
+        <v>92675</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" t="s">
+        <v>75</v>
+      </c>
+      <c r="B82">
+        <v>0.05950226</v>
+      </c>
+      <c r="C82">
+        <v>0.00126124</v>
+      </c>
+      <c r="D82">
+        <v>0.09753357999999999</v>
+      </c>
+      <c r="E82">
+        <v>0.00124167</v>
+      </c>
+      <c r="F82">
+        <v>0.80012286</v>
+      </c>
+      <c r="G82">
+        <v>0.01676968</v>
+      </c>
+      <c r="H82">
+        <v>0.03057252</v>
+      </c>
+      <c r="I82">
+        <v>0.00121863</v>
+      </c>
+      <c r="J82">
+        <v>17024</v>
+      </c>
+      <c r="K82">
+        <v>1000</v>
+      </c>
+      <c r="L82">
+        <v>337</v>
+      </c>
+      <c r="M82">
+        <v>11629</v>
+      </c>
+      <c r="N82">
+        <v>192801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" t="s">
         <v>76</v>
       </c>
-      <c r="B81">
+      <c r="B83">
         <v>0.06070474</v>
       </c>
-      <c r="C81">
+      <c r="C83">
         <v>0.00129115</v>
       </c>
-      <c r="D81">
+      <c r="D83">
         <v>0.09767724999999999</v>
       </c>
-      <c r="E81">
+      <c r="E83">
         <v>0.00124608</v>
       </c>
-      <c r="F81">
+      <c r="F83">
         <v>0.81749368</v>
       </c>
-      <c r="G81">
+      <c r="G83">
         <v>0.01718672</v>
       </c>
-      <c r="H81">
+      <c r="H83">
         <v>0.03096477</v>
       </c>
-      <c r="I81">
+      <c r="I83">
         <v>0.00124138</v>
       </c>
-      <c r="J81">
+      <c r="J83">
         <v>17968</v>
       </c>
-      <c r="K81">
+      <c r="K83">
         <v>1077</v>
       </c>
-      <c r="L81">
+      <c r="L83">
         <v>357</v>
       </c>
-      <c r="M81">
+      <c r="M83">
         <v>12145</v>
       </c>
-      <c r="N81">
+      <c r="N83">
         <v>203213</v>
       </c>
     </row>
@@ -10387,10 +10387,10 @@
         <v>6</v>
       </c>
       <c r="L3">
-        <v>23.10902552070312</v>
+        <v>20.79812296863281</v>
       </c>
       <c r="M3">
-        <v>333.7302193142581</v>
+        <v>331.4286315948494</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -10458,10 +10458,10 @@
         <v>7</v>
       </c>
       <c r="L4">
-        <v>20.21347385426082</v>
+        <v>18.19212646883474</v>
       </c>
       <c r="M4">
-        <v>293.2044510620084</v>
+        <v>291.1823513995118</v>
       </c>
       <c r="N4">
         <v>2</v>
@@ -10529,10 +10529,10 @@
         <v>20</v>
       </c>
       <c r="L5">
-        <v>18.08412023770602</v>
+        <v>16.27570821393542</v>
       </c>
       <c r="M5">
-        <v>262.506772384921</v>
+        <v>260.6963808512319</v>
       </c>
       <c r="N5">
         <v>15</v>
@@ -10600,10 +10600,10 @@
         <v>21</v>
       </c>
       <c r="L6">
-        <v>18.59338038733004</v>
+        <v>16.73404234859704</v>
       </c>
       <c r="M6">
-        <v>270.5585572388125</v>
+        <v>268.692636154407</v>
       </c>
       <c r="N6">
         <v>16</v>
@@ -10671,10 +10671,10 @@
         <v>20</v>
       </c>
       <c r="L7">
-        <v>20.4525565695712</v>
+        <v>18.40730091261408</v>
       </c>
       <c r="M7">
-        <v>294.6291006078986</v>
+        <v>292.59717577612</v>
       </c>
       <c r="N7">
         <v>17</v>
@@ -10742,10 +10742,10 @@
         <v>21</v>
       </c>
       <c r="L8">
-        <v>20.14418468975289</v>
+        <v>18.1297662207776</v>
       </c>
       <c r="M8">
-        <v>292.3204397449263</v>
+        <v>290.3044367122026</v>
       </c>
       <c r="N8">
         <v>18</v>
@@ -10813,10 +10813,10 @@
         <v>38</v>
       </c>
       <c r="L9">
-        <v>19.38742342792849</v>
+        <v>17.44868108513564</v>
       </c>
       <c r="M9">
-        <v>280.4587486814914</v>
+        <v>278.5245504147225</v>
       </c>
       <c r="N9">
         <v>35</v>
@@ -10884,10 +10884,10 @@
         <v>39</v>
       </c>
       <c r="L10">
-        <v>20.01583531274743</v>
+        <v>18.01425178147268</v>
       </c>
       <c r="M10">
-        <v>292.5917109656837</v>
+        <v>290.5738370969548</v>
       </c>
       <c r="N10">
         <v>36</v>
@@ -10955,10 +10955,10 @@
         <v>38</v>
       </c>
       <c r="L11">
-        <v>20.36150042110264</v>
+        <v>18.32535037899238</v>
       </c>
       <c r="M11">
-        <v>294.5488111061882</v>
+        <v>292.517439995111</v>
       </c>
       <c r="N11">
         <v>37</v>
@@ -11026,10 +11026,10 @@
         <v>39</v>
       </c>
       <c r="L12">
-        <v>20.73638974669057</v>
+        <v>18.66275077202151</v>
       </c>
       <c r="M12">
-        <v>302.6628267611874</v>
+        <v>300.5754969214551</v>
       </c>
       <c r="N12">
         <v>38</v>
@@ -11097,10 +11097,10 @@
         <v>56</v>
       </c>
       <c r="L13">
-        <v>19.02433757315309</v>
+        <v>17.12190381583778</v>
       </c>
       <c r="M13">
-        <v>276.7154039285187</v>
+        <v>274.8070218324599</v>
       </c>
       <c r="N13">
         <v>55</v>
@@ -11168,10 +11168,10 @@
         <v>57</v>
       </c>
       <c r="L14">
-        <v>19.87777225905371</v>
+        <v>17.88999503314833</v>
       </c>
       <c r="M14">
-        <v>286.0729582041058</v>
+        <v>284.100041250974</v>
       </c>
       <c r="N14">
         <v>56</v>
@@ -11239,10 +11239,10 @@
         <v>56</v>
       </c>
       <c r="L15">
-        <v>18.92495455725786</v>
+        <v>17.03245910153207</v>
       </c>
       <c r="M15">
-        <v>278.3585577063112</v>
+        <v>276.4388435152333</v>
       </c>
       <c r="N15">
         <v>57</v>
@@ -11310,10 +11310,10 @@
         <v>57</v>
       </c>
       <c r="L16">
-        <v>19.91863585215961</v>
+        <v>17.92677226694365</v>
       </c>
       <c r="M16">
-        <v>289.58774485986</v>
+        <v>287.5905879987576</v>
       </c>
       <c r="N16">
         <v>58</v>
@@ -11381,10 +11381,10 @@
         <v>75</v>
       </c>
       <c r="L17">
-        <v>20.13156755820999</v>
+        <v>18.11841080238899</v>
       </c>
       <c r="M17">
-        <v>288.2437108762306</v>
+        <v>286.2558232150153</v>
       </c>
       <c r="N17">
         <v>76</v>
@@ -11452,10 +11452,10 @@
         <v>76</v>
       </c>
       <c r="L18">
-        <v>21.02484203237254</v>
+        <v>18.92235782913529</v>
       </c>
       <c r="M18">
-        <v>303.8099865575981</v>
+        <v>301.7147452709939</v>
       </c>
       <c r="N18">
         <v>77</v>
@@ -11618,10 +11618,10 @@
         <v>8</v>
       </c>
       <c r="L3">
-        <v>43.35942458218744</v>
+        <v>39.02348212396869</v>
       </c>
       <c r="M3">
-        <v>110.8318560168649</v>
+        <v>110.0674983891624</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -11689,10 +11689,10 @@
         <v>22</v>
       </c>
       <c r="L4">
-        <v>37.2613243322082</v>
+        <v>33.53519189898737</v>
       </c>
       <c r="M4">
-        <v>95.75445769756705</v>
+        <v>95.09408212723899</v>
       </c>
       <c r="N4">
         <v>19</v>
@@ -11760,10 +11760,10 @@
         <v>40</v>
       </c>
       <c r="L5">
-        <v>44.49262530502948</v>
+        <v>40.04336277452653</v>
       </c>
       <c r="M5">
-        <v>113.2048441884507</v>
+        <v>112.4241211250821</v>
       </c>
       <c r="N5">
         <v>39</v>
@@ -11831,10 +11831,10 @@
         <v>58</v>
       </c>
       <c r="L6">
-        <v>42.53267549554229</v>
+        <v>38.27940794598805</v>
       </c>
       <c r="M6">
-        <v>110.0687585948244</v>
+        <v>109.3096637079635</v>
       </c>
       <c r="N6">
         <v>59</v>
@@ -11997,10 +11997,10 @@
         <v>9</v>
       </c>
       <c r="L3">
-        <v>138.3756755197415</v>
+        <v>124.5381079677674</v>
       </c>
       <c r="M3">
-        <v>142.7482549735685</v>
+        <v>141.7637842496129</v>
       </c>
       <c r="N3">
         <v>4</v>
@@ -12068,10 +12068,10 @@
         <v>23</v>
       </c>
       <c r="L4">
-        <v>94.70183772971622</v>
+        <v>85.23165395674459</v>
       </c>
       <c r="M4">
-        <v>99.77498273784541</v>
+        <v>99.08687940861888</v>
       </c>
       <c r="N4">
         <v>20</v>
@@ -12273,10 +12273,10 @@
         <v>10</v>
       </c>
       <c r="L3">
-        <v>47.0011731446045</v>
+        <v>42.30105583014404</v>
       </c>
       <c r="M3">
-        <v>98.51322260231251</v>
+        <v>97.83382106712415</v>
       </c>
       <c r="N3">
         <v>5</v>
@@ -12379,10 +12379,10 @@
         <v>11</v>
       </c>
       <c r="L4">
-        <v>893.4592380329635</v>
+        <v>804.1133142296671</v>
       </c>
       <c r="M4">
-        <v>121.472425778438</v>
+        <v>120.6346849110005</v>
       </c>
       <c r="N4">
         <v>6</v>
@@ -12485,10 +12485,10 @@
         <v>12</v>
       </c>
       <c r="L5">
-        <v>74.74585072215704</v>
+        <v>67.27126564994134</v>
       </c>
       <c r="M5">
-        <v>99.04558298589215</v>
+        <v>98.36250999978256</v>
       </c>
       <c r="N5">
         <v>7</v>
@@ -12591,10 +12591,10 @@
         <v>13</v>
       </c>
       <c r="L6">
-        <v>63.76367867376964</v>
+        <v>57.38731080639268</v>
       </c>
       <c r="M6">
-        <v>97.27458859263719</v>
+        <v>96.60372936096383</v>
       </c>
       <c r="N6">
         <v>8</v>
@@ -12697,10 +12697,10 @@
         <v>14</v>
       </c>
       <c r="L7">
-        <v>223.226724618728</v>
+        <v>200.9040521568552</v>
       </c>
       <c r="M7">
-        <v>1009.388476817099</v>
+        <v>1002.427176976981</v>
       </c>
       <c r="N7">
         <v>9</v>
@@ -12803,10 +12803,10 @@
         <v>15</v>
       </c>
       <c r="L8">
-        <v>53.93849645171837</v>
+        <v>48.54464680654653</v>
       </c>
       <c r="M8">
-        <v>426.2321506027337</v>
+        <v>423.2926185296114</v>
       </c>
       <c r="N8">
         <v>10</v>
@@ -12909,10 +12909,10 @@
         <v>16</v>
       </c>
       <c r="L9">
-        <v>75.18741465853799</v>
+        <v>67.6686731926842</v>
       </c>
       <c r="M9">
-        <v>109.0781201896611</v>
+        <v>108.3258572918014</v>
       </c>
       <c r="N9">
         <v>11</v>
@@ -13015,10 +13015,10 @@
         <v>17</v>
       </c>
       <c r="L10">
-        <v>191.9079946920015</v>
+        <v>172.7171952228013</v>
       </c>
       <c r="M10">
-        <v>142.4389283666507</v>
+        <v>141.4565909296393</v>
       </c>
       <c r="N10">
         <v>12</v>
@@ -13121,10 +13121,10 @@
         <v>18</v>
       </c>
       <c r="L11">
-        <v>302.719003019405</v>
+        <v>272.4471027174645</v>
       </c>
       <c r="M11">
-        <v>590.1526833751254</v>
+        <v>586.0826648690902</v>
       </c>
       <c r="N11">
         <v>13</v>
@@ -13227,10 +13227,10 @@
         <v>19</v>
       </c>
       <c r="L12">
-        <v>558.247591207185</v>
+        <v>502.4228320864665</v>
       </c>
       <c r="M12">
-        <v>790.1263606284956</v>
+        <v>784.6772133138164</v>
       </c>
       <c r="N12">
         <v>14</v>
@@ -13333,10 +13333,10 @@
         <v>24</v>
       </c>
       <c r="L13">
-        <v>104.7697628870276</v>
+        <v>94.29278659832478</v>
       </c>
       <c r="M13">
-        <v>171.5562032367924</v>
+        <v>170.3730570075732</v>
       </c>
       <c r="N13">
         <v>21</v>
@@ -13439,10 +13439,10 @@
         <v>25</v>
       </c>
       <c r="L14">
-        <v>908.7019210734676</v>
+        <v>817.8317289661207</v>
       </c>
       <c r="M14">
-        <v>888.0962889752373</v>
+        <v>881.9714869823046</v>
       </c>
       <c r="N14">
         <v>22</v>
@@ -13545,10 +13545,10 @@
         <v>26</v>
       </c>
       <c r="L15">
-        <v>274.3876317873068</v>
+        <v>246.948868608576</v>
       </c>
       <c r="M15">
-        <v>446.3725105265295</v>
+        <v>443.29407941945</v>
       </c>
       <c r="N15">
         <v>23</v>
@@ -13651,10 +13651,10 @@
         <v>27</v>
       </c>
       <c r="L16">
-        <v>60.87094220110848</v>
+        <v>54.78384798099762</v>
       </c>
       <c r="M16">
-        <v>67.72642962025722</v>
+        <v>67.25935079528992</v>
       </c>
       <c r="N16">
         <v>24</v>
@@ -13757,10 +13757,10 @@
         <v>28</v>
       </c>
       <c r="L17">
-        <v>118.3547943492937</v>
+        <v>106.5193149143643</v>
       </c>
       <c r="M17">
-        <v>243.6286833622369</v>
+        <v>241.9484855459456</v>
       </c>
       <c r="N17">
         <v>25</v>
@@ -13863,10 +13863,10 @@
         <v>29</v>
       </c>
       <c r="L18">
-        <v>208.9827895153561</v>
+        <v>188.0845105638205</v>
       </c>
       <c r="M18">
-        <v>23.06947571051767</v>
+        <v>22.91037587803134</v>
       </c>
       <c r="N18">
         <v>26</v>
@@ -13969,10 +13969,10 @@
         <v>30</v>
       </c>
       <c r="L19">
-        <v>106.5099804142184</v>
+        <v>95.85898237279659</v>
       </c>
       <c r="M19">
-        <v>169.7672409230606</v>
+        <v>168.5964323649706</v>
       </c>
       <c r="N19">
         <v>27</v>
@@ -14075,10 +14075,10 @@
         <v>31</v>
       </c>
       <c r="L20">
-        <v>80.21502687835981</v>
+        <v>72.19352419052382</v>
       </c>
       <c r="M20">
-        <v>242.6078469262287</v>
+        <v>240.9346893612203</v>
       </c>
       <c r="N20">
         <v>28</v>
@@ -14181,10 +14181,10 @@
         <v>32</v>
       </c>
       <c r="L21">
-        <v>262.6778347293412</v>
+        <v>236.410051256407</v>
       </c>
       <c r="M21">
-        <v>311.6577945551288</v>
+        <v>309.5084304547485</v>
       </c>
       <c r="N21">
         <v>29</v>
@@ -14287,10 +14287,10 @@
         <v>33</v>
       </c>
       <c r="L22">
-        <v>270.7805142309455</v>
+        <v>243.702462807851</v>
       </c>
       <c r="M22">
-        <v>662.4785869280257</v>
+        <v>657.9097690871428</v>
       </c>
       <c r="N22">
         <v>30</v>
@@ -14393,10 +14393,10 @@
         <v>34</v>
       </c>
       <c r="L23">
-        <v>236.0261699379089</v>
+        <v>212.423552944118</v>
       </c>
       <c r="M23">
-        <v>210.1181211390929</v>
+        <v>208.6690306484785</v>
       </c>
       <c r="N23">
         <v>31</v>
@@ -14499,10 +14499,10 @@
         <v>35</v>
       </c>
       <c r="L24">
-        <v>343.9396591240572</v>
+        <v>309.5456932116514</v>
       </c>
       <c r="M24">
-        <v>444.9176401373095</v>
+        <v>441.8492426191211</v>
       </c>
       <c r="N24">
         <v>32</v>
@@ -14605,10 +14605,10 @@
         <v>36</v>
       </c>
       <c r="L25">
-        <v>71.11055548610244</v>
+        <v>63.99949993749218</v>
       </c>
       <c r="M25">
-        <v>201.7815282022374</v>
+        <v>200.389931456015</v>
       </c>
       <c r="N25">
         <v>33</v>
@@ -14711,10 +14711,10 @@
         <v>37</v>
       </c>
       <c r="L26">
-        <v>316.7212568237696</v>
+        <v>285.0491311413926</v>
       </c>
       <c r="M26">
-        <v>954.2422067987658</v>
+        <v>947.6612260622225</v>
       </c>
       <c r="N26">
         <v>34</v>
@@ -14817,10 +14817,10 @@
         <v>41</v>
       </c>
       <c r="L27">
-        <v>76.84712894378819</v>
+        <v>69.16241604940937</v>
       </c>
       <c r="M27">
-        <v>938.5807118594004</v>
+        <v>932.1077414327838</v>
       </c>
       <c r="N27">
         <v>40</v>
@@ -14923,10 +14923,10 @@
         <v>42</v>
       </c>
       <c r="L28">
-        <v>291.0989699181549</v>
+        <v>261.9890729263394</v>
       </c>
       <c r="M28">
-        <v>228.9395953330379</v>
+        <v>227.3607015721204</v>
       </c>
       <c r="N28">
         <v>41</v>
@@ -15029,10 +15029,10 @@
         <v>43</v>
       </c>
       <c r="L29">
-        <v>678.8347334096358</v>
+        <v>610.9512600686721</v>
       </c>
       <c r="M29">
-        <v>708.115492541722</v>
+        <v>703.2319374207447</v>
       </c>
       <c r="N29">
         <v>42</v>
@@ -15135,10 +15135,10 @@
         <v>44</v>
       </c>
       <c r="L30">
-        <v>508.4052087157449</v>
+        <v>457.5646878441704</v>
       </c>
       <c r="M30">
-        <v>891.1135725889824</v>
+        <v>884.9679617435411</v>
       </c>
       <c r="N30">
         <v>43</v>
@@ -15241,10 +15241,10 @@
         <v>45</v>
       </c>
       <c r="L31">
-        <v>150.5396592307858</v>
+        <v>135.4856933077072</v>
       </c>
       <c r="M31">
-        <v>516.8660463742431</v>
+        <v>513.3014529509725</v>
       </c>
       <c r="N31">
         <v>44</v>
@@ -15347,10 +15347,10 @@
         <v>46</v>
       </c>
       <c r="L32">
-        <v>97.28982659209191</v>
+        <v>87.5608439328827</v>
       </c>
       <c r="M32">
-        <v>143.9344262295082</v>
+        <v>142.9417750141323</v>
       </c>
       <c r="N32">
         <v>45</v>
@@ -15453,10 +15453,10 @@
         <v>47</v>
       </c>
       <c r="L33">
-        <v>245.1776189345024</v>
+        <v>220.6598570410521</v>
       </c>
       <c r="M33">
-        <v>243.2329050361837</v>
+        <v>241.5554367255893</v>
       </c>
       <c r="N33">
         <v>46</v>
@@ -15559,10 +15559,10 @@
         <v>48</v>
       </c>
       <c r="L34">
-        <v>197.2677996847129</v>
+        <v>177.5410197162416</v>
       </c>
       <c r="M34">
-        <v>197.5793826613499</v>
+        <v>196.2167662292026</v>
       </c>
       <c r="N34">
         <v>47</v>
@@ -15665,10 +15665,10 @@
         <v>49</v>
       </c>
       <c r="L35">
-        <v>133.9529660742436</v>
+        <v>120.5576694668193</v>
       </c>
       <c r="M35">
-        <v>160.3204844188451</v>
+        <v>159.2148259056117</v>
       </c>
       <c r="N35">
         <v>48</v>
@@ -15771,10 +15771,10 @@
         <v>50</v>
       </c>
       <c r="L36">
-        <v>557.8456820783035</v>
+        <v>502.0611138704731</v>
       </c>
       <c r="M36">
-        <v>474.7644365677152</v>
+        <v>471.4901990741448</v>
       </c>
       <c r="N36">
         <v>49</v>
@@ -15877,10 +15877,10 @@
         <v>51</v>
       </c>
       <c r="L37">
-        <v>91.76841514241907</v>
+        <v>82.59157362817716</v>
       </c>
       <c r="M37">
-        <v>160.7000443066017</v>
+        <v>159.5917681389699</v>
       </c>
       <c r="N37">
         <v>50</v>
@@ -15983,10 +15983,10 @@
         <v>52</v>
       </c>
       <c r="L38">
-        <v>202.5991750707236</v>
+        <v>182.3392575636513</v>
       </c>
       <c r="M38">
-        <v>389.8611726480579</v>
+        <v>387.1724749056575</v>
       </c>
       <c r="N38">
         <v>51</v>
@@ -16089,10 +16089,10 @@
         <v>53</v>
       </c>
       <c r="L39">
-        <v>878.101366963958</v>
+        <v>790.2912302675621</v>
       </c>
       <c r="M39">
-        <v>114.2947865898686</v>
+        <v>113.5065466823522</v>
       </c>
       <c r="N39">
         <v>52</v>
@@ -16195,10 +16195,10 @@
         <v>54</v>
       </c>
       <c r="L40">
-        <v>74.86557107996632</v>
+        <v>67.37901397196967</v>
       </c>
       <c r="M40">
-        <v>179.5141042682026</v>
+        <v>178.2760759629047</v>
       </c>
       <c r="N40">
         <v>53</v>
@@ -16301,10 +16301,10 @@
         <v>55</v>
       </c>
       <c r="L41">
-        <v>255.083680653033</v>
+        <v>229.5753125877297</v>
       </c>
       <c r="M41">
-        <v>635.114458721016</v>
+        <v>630.7343590056987</v>
       </c>
       <c r="N41">
         <v>54</v>
@@ -16407,10 +16407,10 @@
         <v>59</v>
       </c>
       <c r="L42">
-        <v>139.3040768631524</v>
+        <v>125.3736691768372</v>
       </c>
       <c r="M42">
-        <v>219.6740571952937</v>
+        <v>218.1590636973952</v>
       </c>
       <c r="N42">
         <v>60</v>
@@ -16647,10 +16647,10 @@
         <v>60</v>
       </c>
       <c r="L3">
-        <v>109.6840647450879</v>
+        <v>98.71565827057907</v>
       </c>
       <c r="M3">
-        <v>193.295708355297</v>
+        <v>191.9626345045708</v>
       </c>
       <c r="N3">
         <v>61</v>
@@ -16753,10 +16753,10 @@
         <v>61</v>
       </c>
       <c r="L4">
-        <v>46.21656712542197</v>
+        <v>41.59491041287977</v>
       </c>
       <c r="M4">
-        <v>46.93055704127964</v>
+        <v>46.60689802720186</v>
       </c>
       <c r="N4">
         <v>62</v>
@@ -16859,10 +16859,10 @@
         <v>62</v>
       </c>
       <c r="L5">
-        <v>80.04327880204276</v>
+        <v>72.03895092183848</v>
       </c>
       <c r="M5">
-        <v>25.88498820084469</v>
+        <v>25.70647104083887</v>
       </c>
       <c r="N5">
         <v>63</v>
@@ -16965,10 +16965,10 @@
         <v>63</v>
       </c>
       <c r="L6">
-        <v>123.5107764217087</v>
+        <v>111.1596987795378</v>
       </c>
       <c r="M6">
-        <v>97.52543810244322</v>
+        <v>96.85284887415051</v>
       </c>
       <c r="N6">
         <v>64</v>
@@ -17071,10 +17071,10 @@
         <v>64</v>
       </c>
       <c r="L7">
-        <v>379.7316714273349</v>
+        <v>341.7585042846014</v>
       </c>
       <c r="M7">
-        <v>527.3068411902003</v>
+        <v>523.6702422854404</v>
       </c>
       <c r="N7">
         <v>65</v>
@@ -17177,10 +17177,10 @@
         <v>65</v>
       </c>
       <c r="L8">
-        <v>325.5898900718428</v>
+        <v>293.0309010646585</v>
       </c>
       <c r="M8">
-        <v>699.6287422525754</v>
+        <v>694.803716443937</v>
       </c>
       <c r="N8">
         <v>66</v>
@@ -17283,10 +17283,10 @@
         <v>66</v>
       </c>
       <c r="L9">
-        <v>707.907902709253</v>
+        <v>637.1171124383277</v>
       </c>
       <c r="M9">
-        <v>850.4984257052751</v>
+        <v>844.6329193211008</v>
       </c>
       <c r="N9">
         <v>67</v>
@@ -17389,10 +17389,10 @@
         <v>67</v>
       </c>
       <c r="L10">
-        <v>636.1776162035835</v>
+        <v>572.559854583225</v>
       </c>
       <c r="M10">
-        <v>625.1836118690094</v>
+        <v>620.8720007526714</v>
       </c>
       <c r="N10">
         <v>68</v>
@@ -17495,10 +17495,10 @@
         <v>68</v>
       </c>
       <c r="L11">
-        <v>428.8081017917424</v>
+        <v>385.9272916125681</v>
       </c>
       <c r="M11">
-        <v>314.0569375295623</v>
+        <v>311.8910276155653</v>
       </c>
       <c r="N11">
         <v>69</v>
@@ -17601,10 +17601,10 @@
         <v>69</v>
       </c>
       <c r="L12">
-        <v>631.655846966156</v>
+        <v>568.4902622695404</v>
       </c>
       <c r="M12">
-        <v>450.1063663885821</v>
+        <v>447.0021845514195</v>
       </c>
       <c r="N12">
         <v>70</v>
@@ -17707,10 +17707,10 @@
         <v>70</v>
       </c>
       <c r="L13">
-        <v>197.0916645027266</v>
+        <v>177.3824980524539</v>
       </c>
       <c r="M13">
-        <v>192.6947053948754</v>
+        <v>191.3657763921521</v>
       </c>
       <c r="N13">
         <v>71</v>
@@ -17813,10 +17813,10 @@
         <v>71</v>
       </c>
       <c r="L14">
-        <v>209.5923136847572</v>
+        <v>188.6330823162815</v>
       </c>
       <c r="M14">
-        <v>229.5023991400987</v>
+        <v>227.9196239736153</v>
       </c>
       <c r="N14">
         <v>72</v>
@@ -17919,10 +17919,10 @@
         <v>72</v>
       </c>
       <c r="L15">
-        <v>64.90435384748551</v>
+        <v>58.41391846273694</v>
       </c>
       <c r="M15">
-        <v>155.9901688742021</v>
+        <v>154.9143746061041</v>
       </c>
       <c r="N15">
         <v>73</v>
@@ -18025,10 +18025,10 @@
         <v>73</v>
       </c>
       <c r="L16">
-        <v>80.73747078680863</v>
+        <v>72.66372370812776</v>
       </c>
       <c r="M16">
-        <v>166.4494144242257</v>
+        <v>165.3014874281966</v>
       </c>
       <c r="N16">
         <v>74</v>
@@ -18131,10 +18131,10 @@
         <v>74</v>
       </c>
       <c r="L17">
-        <v>81.98736258980352</v>
+        <v>73.78862633082316</v>
       </c>
       <c r="M17">
-        <v>138.5521128285366</v>
+        <v>137.596581015926</v>
       </c>
       <c r="N17">
         <v>75</v>

--- a/test_files/outputs/test_upb_output.xlsx
+++ b/test_files/outputs/test_upb_output.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="84">
   <si>
     <t>Analysis_#</t>
   </si>
@@ -193,6 +193,9 @@
     <t>STDGJ-15</t>
   </si>
   <si>
+    <t>610-11</t>
+  </si>
+  <si>
     <t>MT-06</t>
   </si>
   <si>
@@ -218,6 +221,9 @@
   </si>
   <si>
     <t>STDGJ-17</t>
+  </si>
+  <si>
+    <t>610-13</t>
   </si>
   <si>
     <t>Pb206</t>
@@ -2260,8 +2266,8 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58">
-        <v>599</v>
+      <c r="A58" t="s">
+        <v>56</v>
       </c>
       <c r="B58">
         <v>0.89751983</v>
@@ -2318,8 +2324,8 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60">
-        <v>599</v>
+      <c r="A60" t="s">
+        <v>56</v>
       </c>
       <c r="B60">
         <v>0.8994562</v>
@@ -2348,7 +2354,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>0.06489136</v>
@@ -2377,7 +2383,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62">
         <v>0.05257529</v>
@@ -2406,7 +2412,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>0.06976876</v>
@@ -2435,7 +2441,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>0.11729224</v>
@@ -2464,7 +2470,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65">
         <v>0.05418023</v>
@@ -2493,7 +2499,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B66">
         <v>0.06013227</v>
@@ -2522,7 +2528,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B67">
         <v>0.05046987</v>
@@ -2551,7 +2557,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B68">
         <v>0.06056739</v>
@@ -2580,7 +2586,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>0.06089867</v>
@@ -2608,8 +2614,8 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70">
-        <v>597</v>
+      <c r="A70" t="s">
+        <v>66</v>
       </c>
       <c r="B70">
         <v>0.91170442</v>
@@ -2651,19 +2657,19 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -2674,40 +2680,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="s">
         <v>0</v>
@@ -2716,25 +2722,25 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
         <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s">
         <v>0</v>
@@ -2752,22 +2758,22 @@
         <v>4</v>
       </c>
       <c r="AF2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s">
         <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -4892,7 +4898,7 @@
     </row>
     <row r="23" spans="1:38">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23">
         <v>0.05257529</v>
@@ -4919,7 +4925,7 @@
         <v>0.0006763</v>
       </c>
       <c r="K23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L23">
         <v>177.6016659917857</v>
@@ -4934,7 +4940,7 @@
         <v>21</v>
       </c>
       <c r="Q23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="R23">
         <v>310.5</v>
@@ -4961,7 +4967,7 @@
         <v>13.48</v>
       </c>
       <c r="AA23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AB23">
         <v>0.00033815</v>
@@ -4979,7 +4985,7 @@
         <v>1.043868935821068</v>
       </c>
       <c r="AH23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AI23">
         <f>100*  0.00033815/AVERAGE($AJ$3:$AJ$29)</f>
@@ -4998,7 +5004,7 @@
     </row>
     <row r="24" spans="1:38">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24">
         <v>0.06976876</v>
@@ -5025,7 +5031,7 @@
         <v>0.0008045</v>
       </c>
       <c r="K24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L24">
         <v>59.56730491120495</v>
@@ -5040,7 +5046,7 @@
         <v>22</v>
       </c>
       <c r="Q24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R24">
         <v>921.6</v>
@@ -5067,7 +5073,7 @@
         <v>16.04</v>
       </c>
       <c r="AA24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AB24">
         <v>0.00040225</v>
@@ -5085,7 +5091,7 @@
         <v>1.087349412919164</v>
       </c>
       <c r="AH24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AI24">
         <f>100*  0.00040225/AVERAGE($AJ$3:$AJ$29)</f>
@@ -5104,7 +5110,7 @@
     </row>
     <row r="25" spans="1:38">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B25">
         <v>0.11729224</v>
@@ -5131,7 +5137,7 @@
         <v>0.00670862</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L25">
         <v>98.57465147220455</v>
@@ -5146,7 +5152,7 @@
         <v>23</v>
       </c>
       <c r="Q25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="R25">
         <v>1915.4</v>
@@ -5173,7 +5179,7 @@
         <v>122.74</v>
       </c>
       <c r="AA25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB25">
         <v>0.00335431</v>
@@ -5191,7 +5197,7 @@
         <v>1.910471110750569</v>
       </c>
       <c r="AH25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AI25">
         <f>100*  0.00335431/AVERAGE($AJ$3:$AJ$29)</f>
@@ -5210,7 +5216,7 @@
     </row>
     <row r="26" spans="1:38">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26">
         <v>0.05418023</v>
@@ -5237,7 +5243,7 @@
         <v>0.0009411000000000001</v>
       </c>
       <c r="K26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L26">
         <v>54.37380690692428</v>
@@ -5252,7 +5258,7 @@
         <v>24</v>
       </c>
       <c r="Q26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R26">
         <v>378.4</v>
@@ -5279,7 +5285,7 @@
         <v>18.74</v>
       </c>
       <c r="AA26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB26">
         <v>0.00047055</v>
@@ -5297,7 +5303,7 @@
         <v>0.6512476933926266</v>
       </c>
       <c r="AH26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AI26">
         <f>100*  0.00047055/AVERAGE($AJ$3:$AJ$29)</f>
@@ -5316,7 +5322,7 @@
     </row>
     <row r="27" spans="1:38">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27">
         <v>0.06013227</v>
@@ -5343,7 +5349,7 @@
         <v>0.00179546</v>
       </c>
       <c r="K27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L27">
         <v>310.3441892751779</v>
@@ -5358,7 +5364,7 @@
         <v>25</v>
       </c>
       <c r="Q27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R27">
         <v>608.3</v>
@@ -5385,7 +5391,7 @@
         <v>35.68</v>
       </c>
       <c r="AA27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB27">
         <v>0.00089773</v>
@@ -5403,7 +5409,7 @@
         <v>1.520727501207904</v>
       </c>
       <c r="AH27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AI27">
         <f>100*  0.00089773/AVERAGE($AJ$3:$AJ$29)</f>
@@ -5422,7 +5428,7 @@
     </row>
     <row r="28" spans="1:38">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B28">
         <v>0.05046987</v>
@@ -5449,7 +5455,7 @@
         <v>0.00143156</v>
       </c>
       <c r="K28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L28">
         <v>76.35795684618499</v>
@@ -5464,7 +5470,7 @@
         <v>26</v>
       </c>
       <c r="Q28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R28">
         <v>216.7</v>
@@ -5491,7 +5497,7 @@
         <v>28.56</v>
       </c>
       <c r="AA28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB28">
         <v>0.00071578</v>
@@ -5509,7 +5515,7 @@
         <v>0.7262167133617721</v>
       </c>
       <c r="AH28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AI28">
         <f>100*  0.00071578/AVERAGE($AJ$3:$AJ$29)</f>
@@ -5528,7 +5534,7 @@
     </row>
     <row r="29" spans="1:38">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29">
         <v>0.06056739</v>
@@ -5555,7 +5561,7 @@
         <v>0.00211754</v>
       </c>
       <c r="K29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L29">
         <v>167.061954069532</v>
@@ -5570,7 +5576,7 @@
         <v>27</v>
       </c>
       <c r="Q29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R29">
         <v>623.9</v>
@@ -5597,7 +5603,7 @@
         <v>41.94</v>
       </c>
       <c r="AA29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB29">
         <v>0.00105877</v>
@@ -5615,7 +5621,7 @@
         <v>1.215171384207349</v>
       </c>
       <c r="AH29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AI29">
         <f>100*  0.00105877/AVERAGE($AJ$3:$AJ$29)</f>
@@ -7299,8 +7305,8 @@
       </c>
     </row>
     <row r="58" spans="1:9">
-      <c r="A58">
-        <v>599</v>
+      <c r="A58" t="s">
+        <v>56</v>
       </c>
       <c r="B58">
         <v>5085</v>
@@ -7357,8 +7363,8 @@
       </c>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60">
-        <v>599</v>
+      <c r="A60" t="s">
+        <v>56</v>
       </c>
       <c r="B60">
         <v>5088</v>
@@ -7387,7 +7393,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B61">
         <v>770.8</v>
@@ -7416,7 +7422,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62">
         <v>310.5</v>
@@ -7445,7 +7451,7 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B63">
         <v>921.6</v>
@@ -7474,7 +7480,7 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B64">
         <v>1915.4</v>
@@ -7503,7 +7509,7 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65">
         <v>378.4</v>
@@ -7532,7 +7538,7 @@
     </row>
     <row r="66" spans="1:9">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B66">
         <v>608.3</v>
@@ -7561,7 +7567,7 @@
     </row>
     <row r="67" spans="1:9">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B67">
         <v>216.7</v>
@@ -7590,7 +7596,7 @@
     </row>
     <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B68">
         <v>623.9</v>
@@ -7619,7 +7625,7 @@
     </row>
     <row r="69" spans="1:9">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>635.7</v>
@@ -7647,8 +7653,8 @@
       </c>
     </row>
     <row r="70" spans="1:9">
-      <c r="A70">
-        <v>597</v>
+      <c r="A70" t="s">
+        <v>66</v>
       </c>
       <c r="B70">
         <v>5107.1</v>
@@ -7717,19 +7723,19 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -10197,8 +10203,8 @@
       </c>
     </row>
     <row r="63" spans="1:14">
-      <c r="A63">
-        <v>599</v>
+      <c r="A63" t="s">
+        <v>56</v>
       </c>
       <c r="B63">
         <v>0.89751983</v>
@@ -10285,8 +10291,8 @@
       </c>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65">
-        <v>599</v>
+      <c r="A65" t="s">
+        <v>56</v>
       </c>
       <c r="B65">
         <v>0.8994562</v>
@@ -10330,7 +10336,7 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B66">
         <v>0.06489136</v>
@@ -10374,7 +10380,7 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67">
         <v>0.05257529</v>
@@ -10418,7 +10424,7 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B68">
         <v>0.06976876</v>
@@ -10462,7 +10468,7 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B69">
         <v>0.11729224</v>
@@ -10506,7 +10512,7 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B70">
         <v>0.05418023</v>
@@ -10550,7 +10556,7 @@
     </row>
     <row r="71" spans="1:14">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B71">
         <v>0.06013227</v>
@@ -10594,7 +10600,7 @@
     </row>
     <row r="72" spans="1:14">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B72">
         <v>0.05046987</v>
@@ -10638,7 +10644,7 @@
     </row>
     <row r="73" spans="1:14">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B73">
         <v>0.06056739</v>
@@ -10682,7 +10688,7 @@
     </row>
     <row r="74" spans="1:14">
       <c r="A74" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B74">
         <v>0.06089867</v>
@@ -10725,8 +10731,8 @@
       </c>
     </row>
     <row r="75" spans="1:14">
-      <c r="A75">
-        <v>597</v>
+      <c r="A75" t="s">
+        <v>66</v>
       </c>
       <c r="B75">
         <v>0.91170442</v>
@@ -10789,25 +10795,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -11711,7 +11717,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33">
         <v>0.05257529</v>
@@ -11740,7 +11746,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34">
         <v>0.06976876</v>
@@ -11769,7 +11775,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35">
         <v>0.11729224</v>
@@ -11798,7 +11804,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36">
         <v>0.05418023</v>
@@ -11827,7 +11833,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B37">
         <v>0.06013227</v>
@@ -11856,7 +11862,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B38">
         <v>0.05046987</v>
@@ -11885,7 +11891,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B39">
         <v>0.06056739</v>
@@ -11927,13 +11933,13 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -11944,40 +11950,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="s">
         <v>0</v>
@@ -11986,25 +11992,25 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
         <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -12932,7 +12938,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B16">
         <v>0.06089867</v>
@@ -12959,7 +12965,7 @@
         <v>0.00247894</v>
       </c>
       <c r="K16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L16">
         <v>19.38566552901024</v>
@@ -12974,7 +12980,7 @@
         <v>14</v>
       </c>
       <c r="Q16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R16">
         <v>635.7</v>
@@ -13016,13 +13022,13 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -13033,40 +13039,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="s">
         <v>0</v>
@@ -13075,25 +13081,25 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
         <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -13182,13 +13188,13 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -13199,40 +13205,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="s">
         <v>0</v>
@@ -13241,25 +13247,25 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
         <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -13831,8 +13837,8 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11">
-        <v>599</v>
+      <c r="A11" t="s">
+        <v>56</v>
       </c>
       <c r="B11">
         <v>0.89751983</v>
@@ -13858,8 +13864,8 @@
       <c r="I11">
         <v>0.03446164</v>
       </c>
-      <c r="K11">
-        <v>599</v>
+      <c r="K11" t="s">
+        <v>56</v>
       </c>
       <c r="L11">
         <v>527.5671513607961</v>
@@ -13873,8 +13879,8 @@
       <c r="O11">
         <v>9</v>
       </c>
-      <c r="Q11">
-        <v>599</v>
+      <c r="Q11" t="s">
+        <v>56</v>
       </c>
       <c r="R11">
         <v>5085</v>
@@ -13902,8 +13908,8 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12">
-        <v>599</v>
+      <c r="A12" t="s">
+        <v>56</v>
       </c>
       <c r="B12">
         <v>0.8994562</v>
@@ -13929,8 +13935,8 @@
       <c r="I12">
         <v>0.01887602</v>
       </c>
-      <c r="K12">
-        <v>599</v>
+      <c r="K12" t="s">
+        <v>56</v>
       </c>
       <c r="L12">
         <v>515.2530803493955</v>
@@ -13944,8 +13950,8 @@
       <c r="O12">
         <v>10</v>
       </c>
-      <c r="Q12">
-        <v>599</v>
+      <c r="Q12" t="s">
+        <v>56</v>
       </c>
       <c r="R12">
         <v>5088</v>
@@ -13973,8 +13979,8 @@
       </c>
     </row>
     <row r="13" spans="1:25">
-      <c r="A13">
-        <v>597</v>
+      <c r="A13" t="s">
+        <v>66</v>
       </c>
       <c r="B13">
         <v>0.91170442</v>
@@ -14000,8 +14006,8 @@
       <c r="I13">
         <v>0.03346966</v>
       </c>
-      <c r="K13">
-        <v>597</v>
+      <c r="K13" t="s">
+        <v>66</v>
       </c>
       <c r="L13">
         <v>471.4837739341702</v>
@@ -14015,8 +14021,8 @@
       <c r="O13">
         <v>11</v>
       </c>
-      <c r="Q13">
-        <v>597</v>
+      <c r="Q13" t="s">
+        <v>66</v>
       </c>
       <c r="R13">
         <v>5107.1</v>
@@ -14058,19 +14064,19 @@
   <sheetData>
     <row r="1" spans="1:38">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AA1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AH1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:38">
@@ -14081,40 +14087,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="s">
         <v>0</v>
@@ -14123,25 +14129,25 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
         <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s">
         <v>0</v>
@@ -14159,22 +14165,22 @@
         <v>4</v>
       </c>
       <c r="AF2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s">
         <v>0</v>
       </c>
       <c r="AI2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AJ2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="AK2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:38">
@@ -15358,13 +15364,13 @@
   <sheetData>
     <row r="1" spans="1:25">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -15375,40 +15381,40 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
         <v>5</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q2" t="s">
         <v>0</v>
@@ -15417,25 +15423,25 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s">
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s">
         <v>4</v>
       </c>
       <c r="W2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s">
         <v>5</v>
       </c>
       <c r="Y2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -15724,7 +15730,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B7">
         <v>0.06489136</v>
@@ -15751,7 +15757,7 @@
         <v>0.00162214</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L7">
         <v>72.14901370972407</v>
@@ -15766,7 +15772,7 @@
         <v>5</v>
       </c>
       <c r="Q7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R7">
         <v>770.8</v>

--- a/test_files/outputs/test_upb_output.xlsx
+++ b/test_files/outputs/test_upb_output.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8450" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8450" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios raw" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="105">
   <si>
     <t>Analysis_#</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>RSD</t>
-  </si>
-  <si>
-    <t>Pb206/Pb207</t>
   </si>
 </sst>
 </file>
@@ -3150,7 +3147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:AI18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
@@ -3291,7 +3288,7 @@
         <v>104</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>104</v>
@@ -13198,9 +13195,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H27" sqref="H27:L27"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13523,7 +13520,7 @@
   <dimension ref="A1:AI43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="T1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
@@ -13663,7 +13660,7 @@
         <v>104</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>105</v>
+        <v>1</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>104</v>
